--- a/word_features/季/ENG,2020-10~2021-1,文档_主题矩阵.xlsx
+++ b/word_features/季/ENG,2020-10~2021-1,文档_主题矩阵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="586">
   <si>
     <t>主题1</t>
   </si>
@@ -80,6 +80,1698 @@
   </si>
   <si>
     <t>疫苗/3526.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3730.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3724.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4063.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3718.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4077.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4088.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3917.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3903.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3902.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3916.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4089.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4076.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3719.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4062.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3725.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3731.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3527.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3533.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3490.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3484.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3309.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3453.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3335.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3321.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3876.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3862.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3692.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3686.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4102.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3679.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4116.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3889.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3651.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3645.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3653.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4128.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3647.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4100.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4114.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3848.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3690.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3684.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3874.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3860.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3337.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3451.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3445.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3323.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3479.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3492.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3486.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3525.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3531.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3519.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3727.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4048.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3733.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4074.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4060.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3928.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3900.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3914.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3915.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3901.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3929.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4061.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4075.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3732.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4049.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3726.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3518.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3530.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3524.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3487.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3493.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3478.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3444.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3322.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3336.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3450.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3861.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3875.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3685.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3691.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3849.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4115.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4101.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3646.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4129.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3652.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4105.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4111.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3656.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4139.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3642.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3871.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3865.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3695.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3859.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3681.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3468.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3454.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3332.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3326.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3440.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3497.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3483.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3508.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3520.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3534.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4071.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4065.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3722.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4059.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3736.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3905.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3911.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3939.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3938.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3910.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3904.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3737.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4058.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3723.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4064.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4070.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3535.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3521.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3509.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3482.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3496.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3327.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3441.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3455.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3333.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3469.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3680.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3858.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3694.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3864.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3870.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3643.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4138.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3657.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4110.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4104.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4112.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3669.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4106.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3641.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3899.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3655.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3866.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3872.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3682.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3696.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3319.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3443.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3325.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3331.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3457.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3480.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3494.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3537.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3523.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4066.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4072.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3735.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3721.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3912.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3906.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4099.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4098.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3907.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3913.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3720.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3734.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4073.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3708.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4067.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3522.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3536.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3495.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3481.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3330.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3456.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3442.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3324.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3318.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3697.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3683.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3873.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3867.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3654.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3898.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3640.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4107.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3668.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4113.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4148.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3627.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3633.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4174.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4160.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3828.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3800.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3814.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3425.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3343.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3357.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3431.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3419.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3380.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3394.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3551.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3545.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4202.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4216.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3579.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3592.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3586.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3753.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3747.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4028.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4000.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4014.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3790.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3948.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3784.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3974.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3960.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3961.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3975.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3785.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3949.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3791.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4015.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4001.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4029.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3746.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3752.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3587.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3593.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3578.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4217.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4203.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3544.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3550.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3395.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3381.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3418.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3356.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3430.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3424.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3342.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3815.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3801.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3829.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4161.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4175.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3632.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3626.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4149.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3630.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3624.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4163.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4177.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3618.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4188.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3817.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3803.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3432.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3354.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3340.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3426.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3368.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3397.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3383.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3546.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3552.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4215.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4201.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3585.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3591.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3744.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3988.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3750.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3778.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4017.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4003.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3787.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3793.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3963.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3977.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3976.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3962.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3792.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3786.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4002.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4016.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3779.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3751.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3989.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3745.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3590.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3584.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4200.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4214.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3553.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3547.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3382.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3396.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3369.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3341.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3427.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3433.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3355.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3802.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3816.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4189.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3619.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4176.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4162.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3625.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3631.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3609.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4166.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4172.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3635.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3621.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3812.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3806.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4199.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3379.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3351.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3437.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3423.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3345.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3392.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3386.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4210.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4204.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3543.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3557.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3580.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3594.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4012.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4006.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3769.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3999.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3741.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3755.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3966.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3972.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3782.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3796.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3797.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3783.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3973.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3967.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3754.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3740.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3998.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3768.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4007.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4013.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3595.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3581.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3556.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3542.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4205.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4211.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3387.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3393.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3422.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3344.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3350.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3436.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3378.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4198.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3807.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3813.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3620.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3634.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4173.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4167.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3608.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4171.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4165.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3622.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3636.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4159.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3805.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3811.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3839.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3408.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3346.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3420.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3434.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3352.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3385.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3391.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3568.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4207.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4213.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3554.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3540.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3597.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3583.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4005.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4011.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4039.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3756.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3742.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3971.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3965.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3795.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3781.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3959.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3958.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3780.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3794.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3964.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3970.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3743.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3757.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4038.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4010.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4004.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3582.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3596.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3541.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3555.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4212.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4206.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3569.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3390.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3384.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3435.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3353.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3347.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3421.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3409.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3838.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3810.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3804.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4158.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3637.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3623.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4164.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4170.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4169.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3606.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3612.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4155.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4141.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3809.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3821.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4196.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3835.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4182.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3404.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3362.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3376.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3410.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3438.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3389.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3570.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3564.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3558.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3772.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3766.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4009.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3996.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4021.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3982.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4035.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3969.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3955.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3799.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3941.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3940.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3798.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3954.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3968.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4034.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3983.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4020.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3997.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4008.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3767.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3773.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3559.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3565.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3571.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3388.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3439.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3377.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3411.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3405.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3363.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4183.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3834.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4197.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3820.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3808.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4140.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4154.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3613.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3607.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4168.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3611.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3605.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4142.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4156.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3639.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3836.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4181.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3822.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4195.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3413.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3375.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3361.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3407.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3349.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4208.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3573.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4220.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3598.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3765.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3771.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3981.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3759.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4036.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3995.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4022.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3942.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3956.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3957.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3943.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4023.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3994.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4037.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3758.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3980.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3770.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3764.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3599.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4221.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3572.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3566.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4209.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3348.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3360.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3406.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3412.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3374.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4194.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3823.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4180.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3837.txt</t>
+  </si>
+  <si>
+    <t>疫苗/3638.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4157.txt</t>
+  </si>
+  <si>
+    <t>疫苗/4143.txt</t>
   </si>
 </sst>
 </file>
@@ -437,7 +2129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,13 +2151,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01006895873658041</v>
+        <v>0.06529795917113367</v>
       </c>
       <c r="C2">
-        <v>0.9803374532794642</v>
+        <v>0.01069000495688487</v>
       </c>
       <c r="D2">
-        <v>0.009593587983955468</v>
+        <v>0.9240120358719816</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -473,13 +2165,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9937193773900227</v>
+        <v>0.2010922613438337</v>
       </c>
       <c r="C3">
-        <v>0.003277184658045565</v>
+        <v>0.1633970470945809</v>
       </c>
       <c r="D3">
-        <v>0.003003437951931808</v>
+        <v>0.6355106915615854</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -487,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.5976024609985636</v>
+        <v>0.3586661100603075</v>
       </c>
       <c r="C4">
-        <v>0.1717990788313254</v>
+        <v>0.03065712669360884</v>
       </c>
       <c r="D4">
-        <v>0.230598460170111</v>
+        <v>0.6106767632460837</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -501,13 +2193,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.6232514429189333</v>
+        <v>0.04415982161583674</v>
       </c>
       <c r="C5">
-        <v>0.2201310188669642</v>
+        <v>0.04373753174028513</v>
       </c>
       <c r="D5">
-        <v>0.1566175382141023</v>
+        <v>0.9121026466438782</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -515,13 +2207,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.003748755830496077</v>
+        <v>0.1546011042942934</v>
       </c>
       <c r="C6">
-        <v>0.9925576379494542</v>
+        <v>0.003212012102598707</v>
       </c>
       <c r="D6">
-        <v>0.003693606220049752</v>
+        <v>0.8421868836031079</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -529,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9936824872310797</v>
+        <v>0.03591326903725862</v>
       </c>
       <c r="C7">
-        <v>0.003327095734170303</v>
+        <v>0.7817500894500692</v>
       </c>
       <c r="D7">
-        <v>0.002990417034750066</v>
+        <v>0.1823366415126721</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -543,13 +2235,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9899758249401361</v>
+        <v>0.3972488255063744</v>
       </c>
       <c r="C8">
-        <v>0.005188424590810452</v>
+        <v>0.449920104852043</v>
       </c>
       <c r="D8">
-        <v>0.004835750469053312</v>
+        <v>0.1528310696415827</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -557,13 +2249,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.019253545631793</v>
+        <v>0.04298276223545492</v>
       </c>
       <c r="C9">
-        <v>0.7100854697160432</v>
+        <v>0.0418102499827128</v>
       </c>
       <c r="D9">
-        <v>0.2706609846521638</v>
+        <v>0.9152069877818323</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -571,13 +2263,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0380399216071617</v>
+        <v>0.01932288657748296</v>
       </c>
       <c r="C10">
-        <v>0.450675295411576</v>
+        <v>0.8687141680241199</v>
       </c>
       <c r="D10">
-        <v>0.5112847829812621</v>
+        <v>0.1119629453983971</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -585,13 +2277,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.00297325294404387</v>
+        <v>0.2374089013867088</v>
       </c>
       <c r="C11">
-        <v>0.9940740212219102</v>
+        <v>0.004050629633182435</v>
       </c>
       <c r="D11">
-        <v>0.002952725834045925</v>
+        <v>0.7585404689801087</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -599,13 +2291,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.5447062192201956</v>
+        <v>0.06002554057047476</v>
       </c>
       <c r="C12">
-        <v>0.02708640979832779</v>
+        <v>0.5614928373165565</v>
       </c>
       <c r="D12">
-        <v>0.4282073709814767</v>
+        <v>0.3784816221129687</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -613,13 +2305,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.3505483291563506</v>
+        <v>0.9782614484226668</v>
       </c>
       <c r="C13">
-        <v>0.6459883876230748</v>
+        <v>0.002447038616281121</v>
       </c>
       <c r="D13">
-        <v>0.00346328322057462</v>
+        <v>0.01929151296105215</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -627,13 +2319,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001659039587858125</v>
+        <v>0.5294661120330418</v>
       </c>
       <c r="C14">
-        <v>0.001708538146634587</v>
+        <v>0.2742055263725183</v>
       </c>
       <c r="D14">
-        <v>0.9966324222655073</v>
+        <v>0.1963283615944398</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -641,13 +2333,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.9766278032636658</v>
+        <v>0.9572668065964778</v>
       </c>
       <c r="C15">
-        <v>0.01184399819094748</v>
+        <v>0.0228803574180463</v>
       </c>
       <c r="D15">
-        <v>0.01152819854538667</v>
+        <v>0.01985283598547588</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -655,13 +2347,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.007979521821142784</v>
+        <v>0.00736358033137853</v>
       </c>
       <c r="C16">
-        <v>0.9844028200263439</v>
+        <v>0.007280971444682232</v>
       </c>
       <c r="D16">
-        <v>0.007617658152513269</v>
+        <v>0.9853554482239392</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -669,13 +2361,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.005366798703801137</v>
+        <v>0.07865665978416173</v>
       </c>
       <c r="C17">
-        <v>0.9892342429403668</v>
+        <v>0.00556778887507332</v>
       </c>
       <c r="D17">
-        <v>0.005398958355832106</v>
+        <v>0.9157755513407649</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -683,13 +2375,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.00991734851327951</v>
+        <v>0.01867067476128213</v>
       </c>
       <c r="C18">
-        <v>0.9810698317359852</v>
+        <v>0.01839841792227804</v>
       </c>
       <c r="D18">
-        <v>0.009012819750735321</v>
+        <v>0.9629309073164398</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -697,13 +2389,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.007053835670355449</v>
+        <v>0.01750000421625187</v>
       </c>
       <c r="C19">
-        <v>0.9859105345142316</v>
+        <v>0.1449356603280837</v>
       </c>
       <c r="D19">
-        <v>0.007035629815412996</v>
+        <v>0.8375643354556644</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -711,13 +2403,7909 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.01832977960637379</v>
+        <v>0.02794827705104416</v>
       </c>
       <c r="C20">
-        <v>0.9632974815563846</v>
+        <v>0.09629822806183716</v>
       </c>
       <c r="D20">
-        <v>0.01837273883724164</v>
+        <v>0.8757534948871187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.01348988569688588</v>
+      </c>
+      <c r="C21">
+        <v>0.01351802394397349</v>
+      </c>
+      <c r="D21">
+        <v>0.9729920903591406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.2496355559672546</v>
+      </c>
+      <c r="C22">
+        <v>0.1884052385611602</v>
+      </c>
+      <c r="D22">
+        <v>0.5619592054715852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.01971321119873822</v>
+      </c>
+      <c r="C23">
+        <v>0.01587329636416265</v>
+      </c>
+      <c r="D23">
+        <v>0.9644134924370992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.2119854917891268</v>
+      </c>
+      <c r="C24">
+        <v>0.03704964438770032</v>
+      </c>
+      <c r="D24">
+        <v>0.7509648638231727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.8490057146098064</v>
+      </c>
+      <c r="C25">
+        <v>0.00549685483660686</v>
+      </c>
+      <c r="D25">
+        <v>0.1454974305535867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.1541285645448263</v>
+      </c>
+      <c r="C26">
+        <v>0.02053356855703655</v>
+      </c>
+      <c r="D26">
+        <v>0.825337866898137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.8357760578271259</v>
+      </c>
+      <c r="C27">
+        <v>0.1451267801335282</v>
+      </c>
+      <c r="D27">
+        <v>0.01909716203934587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.3602285991154622</v>
+      </c>
+      <c r="C28">
+        <v>0.2069195332416434</v>
+      </c>
+      <c r="D28">
+        <v>0.4328518676428945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.09255644149355959</v>
+      </c>
+      <c r="C29">
+        <v>0.02546130876922097</v>
+      </c>
+      <c r="D29">
+        <v>0.8819822497372195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.005474228716481128</v>
+      </c>
+      <c r="C30">
+        <v>0.4420719479595491</v>
+      </c>
+      <c r="D30">
+        <v>0.5524538233239698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.03537959801752629</v>
+      </c>
+      <c r="C31">
+        <v>0.8444223485163173</v>
+      </c>
+      <c r="D31">
+        <v>0.1201980534661565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.01183595297145515</v>
+      </c>
+      <c r="C32">
+        <v>0.134971153316005</v>
+      </c>
+      <c r="D32">
+        <v>0.8531928937125398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.01233368711600582</v>
+      </c>
+      <c r="C33">
+        <v>0.3868261577480148</v>
+      </c>
+      <c r="D33">
+        <v>0.6008401551359794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0.059278118908948</v>
+      </c>
+      <c r="C34">
+        <v>0.04979705753666919</v>
+      </c>
+      <c r="D34">
+        <v>0.8909248235543828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.06971627127576899</v>
+      </c>
+      <c r="C35">
+        <v>0.005481544112489425</v>
+      </c>
+      <c r="D35">
+        <v>0.9248021846117416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.01423813828089454</v>
+      </c>
+      <c r="C36">
+        <v>0.0145637896318687</v>
+      </c>
+      <c r="D36">
+        <v>0.9711980720872367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.01357674017782805</v>
+      </c>
+      <c r="C37">
+        <v>0.01365851533803159</v>
+      </c>
+      <c r="D37">
+        <v>0.9727647444841403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0.01256704460467671</v>
+      </c>
+      <c r="C38">
+        <v>0.01068640643019703</v>
+      </c>
+      <c r="D38">
+        <v>0.9767465489651264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0.03169115562009635</v>
+      </c>
+      <c r="C39">
+        <v>0.4806152405904186</v>
+      </c>
+      <c r="D39">
+        <v>0.487693603789485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0.008053007361159919</v>
+      </c>
+      <c r="C40">
+        <v>0.008239866537952074</v>
+      </c>
+      <c r="D40">
+        <v>0.9837071261008881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0.05649810814848024</v>
+      </c>
+      <c r="C41">
+        <v>0.05602008889069036</v>
+      </c>
+      <c r="D41">
+        <v>0.8874818029608295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0.05022508970435021</v>
+      </c>
+      <c r="C42">
+        <v>0.3321788105779285</v>
+      </c>
+      <c r="D42">
+        <v>0.6175960997177211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0.08146838202329404</v>
+      </c>
+      <c r="C43">
+        <v>0.8169528692954339</v>
+      </c>
+      <c r="D43">
+        <v>0.1015787486812719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0.1575799017236496</v>
+      </c>
+      <c r="C44">
+        <v>0.4312839608049008</v>
+      </c>
+      <c r="D44">
+        <v>0.4111361374714496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0.02631864683872722</v>
+      </c>
+      <c r="C45">
+        <v>0.02655151276803827</v>
+      </c>
+      <c r="D45">
+        <v>0.9471298403932344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>0.02951299521415865</v>
+      </c>
+      <c r="C46">
+        <v>0.02465300639283055</v>
+      </c>
+      <c r="D46">
+        <v>0.9458339983930109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>0.8444026813259824</v>
+      </c>
+      <c r="C47">
+        <v>0.1538820587381224</v>
+      </c>
+      <c r="D47">
+        <v>0.001715259935895328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0.00704757889486099</v>
+      </c>
+      <c r="C48">
+        <v>0.006780715735757554</v>
+      </c>
+      <c r="D48">
+        <v>0.9861717053693815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0.02070497872959354</v>
+      </c>
+      <c r="C49">
+        <v>0.1267721392348288</v>
+      </c>
+      <c r="D49">
+        <v>0.8525228820355776</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>0.7445502400322076</v>
+      </c>
+      <c r="C50">
+        <v>0.222270189707043</v>
+      </c>
+      <c r="D50">
+        <v>0.0331795702607494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>0.5188828129187905</v>
+      </c>
+      <c r="C51">
+        <v>0.2269666322360073</v>
+      </c>
+      <c r="D51">
+        <v>0.2541505548452023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>0.3325465510398069</v>
+      </c>
+      <c r="C52">
+        <v>0.3542233924398284</v>
+      </c>
+      <c r="D52">
+        <v>0.3132300565203646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>0.5896318747129655</v>
+      </c>
+      <c r="C53">
+        <v>0.004777384282354219</v>
+      </c>
+      <c r="D53">
+        <v>0.4055907410046802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.008496053712758184</v>
+      </c>
+      <c r="C54">
+        <v>0.008849652619182082</v>
+      </c>
+      <c r="D54">
+        <v>0.9826542936680598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.00787081833916748</v>
+      </c>
+      <c r="C55">
+        <v>0.1448924088872871</v>
+      </c>
+      <c r="D55">
+        <v>0.8472367727735455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0.02197964187214183</v>
+      </c>
+      <c r="C56">
+        <v>0.02474694104289614</v>
+      </c>
+      <c r="D56">
+        <v>0.953273417084962</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>0.0173681948948075</v>
+      </c>
+      <c r="C57">
+        <v>0.01419603304861587</v>
+      </c>
+      <c r="D57">
+        <v>0.9684357720565767</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>0.3689471202319802</v>
+      </c>
+      <c r="C58">
+        <v>0.1026681281428252</v>
+      </c>
+      <c r="D58">
+        <v>0.5283847516251946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>0.9904021256322565</v>
+      </c>
+      <c r="C59">
+        <v>0.004922166159716434</v>
+      </c>
+      <c r="D59">
+        <v>0.004675708208026933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>0.3872737002285656</v>
+      </c>
+      <c r="C60">
+        <v>0.003639657002862601</v>
+      </c>
+      <c r="D60">
+        <v>0.6090866427685717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0.02533176838220817</v>
+      </c>
+      <c r="C61">
+        <v>0.522284526625061</v>
+      </c>
+      <c r="D61">
+        <v>0.4523837049927309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>0.03336420629229397</v>
+      </c>
+      <c r="C62">
+        <v>0.3229884717742796</v>
+      </c>
+      <c r="D62">
+        <v>0.6436473219334266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.007959569582531977</v>
+      </c>
+      <c r="C63">
+        <v>0.3844694804424591</v>
+      </c>
+      <c r="D63">
+        <v>0.6075709499750088</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>0.05645550101951764</v>
+      </c>
+      <c r="C64">
+        <v>0.0852524197308084</v>
+      </c>
+      <c r="D64">
+        <v>0.8582920792496739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0.8865605817304292</v>
+      </c>
+      <c r="C65">
+        <v>0.02717420917157477</v>
+      </c>
+      <c r="D65">
+        <v>0.08626520909799601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0.0175245727278798</v>
+      </c>
+      <c r="C66">
+        <v>0.01694107783499028</v>
+      </c>
+      <c r="D66">
+        <v>0.96553434943713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>0.006028842725640885</v>
+      </c>
+      <c r="C67">
+        <v>0.1134709051279057</v>
+      </c>
+      <c r="D67">
+        <v>0.8805002521464534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>0.4316978576134264</v>
+      </c>
+      <c r="C68">
+        <v>0.3499986366613405</v>
+      </c>
+      <c r="D68">
+        <v>0.218303505725233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>0.01120039048384281</v>
+      </c>
+      <c r="C69">
+        <v>0.5195222524163344</v>
+      </c>
+      <c r="D69">
+        <v>0.4692773570998227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>0.02994176344870339</v>
+      </c>
+      <c r="C70">
+        <v>0.02911071642987086</v>
+      </c>
+      <c r="D70">
+        <v>0.9409475201214258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>0.227753583644513</v>
+      </c>
+      <c r="C71">
+        <v>0.007342908146824761</v>
+      </c>
+      <c r="D71">
+        <v>0.7649035082086623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>0.005000339592805341</v>
+      </c>
+      <c r="C72">
+        <v>0.004875825290326269</v>
+      </c>
+      <c r="D72">
+        <v>0.9901238351168685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>0.00687459155294834</v>
+      </c>
+      <c r="C73">
+        <v>0.006901700566285577</v>
+      </c>
+      <c r="D73">
+        <v>0.9862237078807662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>0.07913427543168458</v>
+      </c>
+      <c r="C74">
+        <v>0.01091313036761278</v>
+      </c>
+      <c r="D74">
+        <v>0.9099525942007026</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0.1347602329673713</v>
+      </c>
+      <c r="C75">
+        <v>0.4605535660031917</v>
+      </c>
+      <c r="D75">
+        <v>0.4046862010294369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>0.1997953359786488</v>
+      </c>
+      <c r="C76">
+        <v>0.01232962110093493</v>
+      </c>
+      <c r="D76">
+        <v>0.7878750429204162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>0.03795474384937859</v>
+      </c>
+      <c r="C77">
+        <v>0.03521565117088254</v>
+      </c>
+      <c r="D77">
+        <v>0.9268296049797389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>0.02539980046920946</v>
+      </c>
+      <c r="C78">
+        <v>0.02052095675217054</v>
+      </c>
+      <c r="D78">
+        <v>0.95407924277862</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>0.1046366424560738</v>
+      </c>
+      <c r="C79">
+        <v>0.02112855337105977</v>
+      </c>
+      <c r="D79">
+        <v>0.8742348041728665</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>0.02468255245103549</v>
+      </c>
+      <c r="C80">
+        <v>0.02479356701308389</v>
+      </c>
+      <c r="D80">
+        <v>0.9505238805358805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>0.0119960494931187</v>
+      </c>
+      <c r="C81">
+        <v>0.929192455961892</v>
+      </c>
+      <c r="D81">
+        <v>0.05881149454498935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>0.3683843001231894</v>
+      </c>
+      <c r="C82">
+        <v>0.6302927854097521</v>
+      </c>
+      <c r="D82">
+        <v>0.001322914467058584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>0.008013198490957534</v>
+      </c>
+      <c r="C83">
+        <v>0.06904362771774246</v>
+      </c>
+      <c r="D83">
+        <v>0.9229431737913001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>0.007157734425964888</v>
+      </c>
+      <c r="C84">
+        <v>0.7836623020104121</v>
+      </c>
+      <c r="D84">
+        <v>0.209179963563623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>0.4535320948096288</v>
+      </c>
+      <c r="C85">
+        <v>0.4806999959710709</v>
+      </c>
+      <c r="D85">
+        <v>0.06576790921930026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>0.1388129876050353</v>
+      </c>
+      <c r="C86">
+        <v>0.009146392474482514</v>
+      </c>
+      <c r="D86">
+        <v>0.8520406199204822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>0.1042628069836137</v>
+      </c>
+      <c r="C87">
+        <v>0.2225586119018266</v>
+      </c>
+      <c r="D87">
+        <v>0.6731785811145596</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>0.06256920420361817</v>
+      </c>
+      <c r="C88">
+        <v>0.3723839561717232</v>
+      </c>
+      <c r="D88">
+        <v>0.5650468396246586</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>0.01320404311049126</v>
+      </c>
+      <c r="C89">
+        <v>0.01279423094158639</v>
+      </c>
+      <c r="D89">
+        <v>0.9740017259479223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>0.09771421726374095</v>
+      </c>
+      <c r="C90">
+        <v>0.01815086880971386</v>
+      </c>
+      <c r="D90">
+        <v>0.8841349139265452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>0.006094178572067822</v>
+      </c>
+      <c r="C91">
+        <v>0.006031332177488074</v>
+      </c>
+      <c r="D91">
+        <v>0.9878744892504442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0.05791435065787002</v>
+      </c>
+      <c r="C92">
+        <v>0.05804316913875997</v>
+      </c>
+      <c r="D92">
+        <v>0.88404248020337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0.01023262789528585</v>
+      </c>
+      <c r="C93">
+        <v>0.0584721959235083</v>
+      </c>
+      <c r="D93">
+        <v>0.9312951761812059</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0.00924170019203365</v>
+      </c>
+      <c r="C94">
+        <v>0.5325136849921812</v>
+      </c>
+      <c r="D94">
+        <v>0.458244614815785</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0.1538474145466454</v>
+      </c>
+      <c r="C95">
+        <v>0.006823714190272383</v>
+      </c>
+      <c r="D95">
+        <v>0.8393288712630822</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>0.03828960918480425</v>
+      </c>
+      <c r="C96">
+        <v>0.03869576678782827</v>
+      </c>
+      <c r="D96">
+        <v>0.9230146240273674</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>0.2833839537124296</v>
+      </c>
+      <c r="C97">
+        <v>0.6743304371443603</v>
+      </c>
+      <c r="D97">
+        <v>0.04228560914321017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>0.01136955197724995</v>
+      </c>
+      <c r="C98">
+        <v>0.01151405779848299</v>
+      </c>
+      <c r="D98">
+        <v>0.9771163902242671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0.06216448977023193</v>
+      </c>
+      <c r="C99">
+        <v>0.06460934669162037</v>
+      </c>
+      <c r="D99">
+        <v>0.8732261635381477</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.02777368634035576</v>
+      </c>
+      <c r="C100">
+        <v>0.02871301551162335</v>
+      </c>
+      <c r="D100">
+        <v>0.9435132981480209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0.01250650934371191</v>
+      </c>
+      <c r="C101">
+        <v>0.01219367913199927</v>
+      </c>
+      <c r="D101">
+        <v>0.9752998115242889</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0.2227284944113514</v>
+      </c>
+      <c r="C102">
+        <v>0.7727367858000093</v>
+      </c>
+      <c r="D102">
+        <v>0.004534719788639302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>0.06194580396102421</v>
+      </c>
+      <c r="C103">
+        <v>0.08417665384835202</v>
+      </c>
+      <c r="D103">
+        <v>0.8538775421906238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>0.03033965394824074</v>
+      </c>
+      <c r="C104">
+        <v>0.2637500921216915</v>
+      </c>
+      <c r="D104">
+        <v>0.7059102539300677</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>0.03740562022123112</v>
+      </c>
+      <c r="C105">
+        <v>0.02867886739713179</v>
+      </c>
+      <c r="D105">
+        <v>0.9339155123816372</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>0.02850203453989175</v>
+      </c>
+      <c r="C106">
+        <v>0.1978720962744396</v>
+      </c>
+      <c r="D106">
+        <v>0.7736258691856687</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>0.3806541862169601</v>
+      </c>
+      <c r="C107">
+        <v>0.5929163973825634</v>
+      </c>
+      <c r="D107">
+        <v>0.02642941640047655</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>0.3867024474543715</v>
+      </c>
+      <c r="C108">
+        <v>0.004545610628731577</v>
+      </c>
+      <c r="D108">
+        <v>0.6087519419168969</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>0.2548915242700914</v>
+      </c>
+      <c r="C109">
+        <v>0.009766330075422878</v>
+      </c>
+      <c r="D109">
+        <v>0.7353421456544859</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>0.005637116460525064</v>
+      </c>
+      <c r="C110">
+        <v>0.005759375326867025</v>
+      </c>
+      <c r="D110">
+        <v>0.9886035082126079</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>0.3056252731710823</v>
+      </c>
+      <c r="C111">
+        <v>0.01386932252314809</v>
+      </c>
+      <c r="D111">
+        <v>0.6805054043057694</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0.01216701123878517</v>
+      </c>
+      <c r="C112">
+        <v>0.01212820230456631</v>
+      </c>
+      <c r="D112">
+        <v>0.9757047864566486</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>0.008928674516155944</v>
+      </c>
+      <c r="C113">
+        <v>0.1121031187404398</v>
+      </c>
+      <c r="D113">
+        <v>0.8789682067434041</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>0.1720951233690931</v>
+      </c>
+      <c r="C114">
+        <v>0.0209965248599</v>
+      </c>
+      <c r="D114">
+        <v>0.8069083517710069</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>0.2900971674450409</v>
+      </c>
+      <c r="C115">
+        <v>0.02153602312594515</v>
+      </c>
+      <c r="D115">
+        <v>0.688366809429014</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>0.9439865464711796</v>
+      </c>
+      <c r="C116">
+        <v>0.005340716521921587</v>
+      </c>
+      <c r="D116">
+        <v>0.05067273700689885</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>0.5618367360429697</v>
+      </c>
+      <c r="C117">
+        <v>0.4345340691141698</v>
+      </c>
+      <c r="D117">
+        <v>0.003629194842860556</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>0.236287831884635</v>
+      </c>
+      <c r="C118">
+        <v>0.1181531914632909</v>
+      </c>
+      <c r="D118">
+        <v>0.6455589766520741</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>0.02707953925688766</v>
+      </c>
+      <c r="C119">
+        <v>0.1726700934932304</v>
+      </c>
+      <c r="D119">
+        <v>0.8002503672498821</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>0.1674141020474932</v>
+      </c>
+      <c r="C120">
+        <v>0.6453726371320133</v>
+      </c>
+      <c r="D120">
+        <v>0.1872132608204935</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>0.01368398569370258</v>
+      </c>
+      <c r="C121">
+        <v>0.01885921414316221</v>
+      </c>
+      <c r="D121">
+        <v>0.9674568001631353</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>0.01274068088098958</v>
+      </c>
+      <c r="C122">
+        <v>0.01204301156858272</v>
+      </c>
+      <c r="D122">
+        <v>0.9752163075504277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>0.5163444815468875</v>
+      </c>
+      <c r="C123">
+        <v>0.01070875450950619</v>
+      </c>
+      <c r="D123">
+        <v>0.4729467639436063</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>0.9905376942214605</v>
+      </c>
+      <c r="C124">
+        <v>0.005180171950231615</v>
+      </c>
+      <c r="D124">
+        <v>0.004282133828307911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>0.5695763557338505</v>
+      </c>
+      <c r="C125">
+        <v>0.002654092991214567</v>
+      </c>
+      <c r="D125">
+        <v>0.4277695512749349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>0.6706253506943018</v>
+      </c>
+      <c r="C126">
+        <v>0.3257992986991915</v>
+      </c>
+      <c r="D126">
+        <v>0.003575350606506683</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>0.006604588657323326</v>
+      </c>
+      <c r="C127">
+        <v>0.05076132596979754</v>
+      </c>
+      <c r="D127">
+        <v>0.9426340853728792</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>0.009494868642653713</v>
+      </c>
+      <c r="C128">
+        <v>0.01009040535188109</v>
+      </c>
+      <c r="D128">
+        <v>0.9804147260054652</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>0.2375458451196196</v>
+      </c>
+      <c r="C129">
+        <v>0.009938222568929679</v>
+      </c>
+      <c r="D129">
+        <v>0.7525159323114506</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>0.5097812429628709</v>
+      </c>
+      <c r="C130">
+        <v>0.4884514130692136</v>
+      </c>
+      <c r="D130">
+        <v>0.001767343967915666</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>0.5916667971050096</v>
+      </c>
+      <c r="C131">
+        <v>0.003396024039817449</v>
+      </c>
+      <c r="D131">
+        <v>0.4049371788551729</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>0.3916497571167019</v>
+      </c>
+      <c r="C132">
+        <v>0.6019498917673243</v>
+      </c>
+      <c r="D132">
+        <v>0.006400351115973917</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>0.02364030320565337</v>
+      </c>
+      <c r="C133">
+        <v>0.09752778644694307</v>
+      </c>
+      <c r="D133">
+        <v>0.8788319103474036</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>0.4743906235511471</v>
+      </c>
+      <c r="C134">
+        <v>0.1078615175230046</v>
+      </c>
+      <c r="D134">
+        <v>0.4177478589258483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>0.02883992508287283</v>
+      </c>
+      <c r="C135">
+        <v>0.4318678515134122</v>
+      </c>
+      <c r="D135">
+        <v>0.539292223403715</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>0.01120583990953632</v>
+      </c>
+      <c r="C136">
+        <v>0.9762734114451339</v>
+      </c>
+      <c r="D136">
+        <v>0.01252074864532971</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>0.4088335771644461</v>
+      </c>
+      <c r="C137">
+        <v>0.5613856248651896</v>
+      </c>
+      <c r="D137">
+        <v>0.02978079797036415</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>0.009459837326448412</v>
+      </c>
+      <c r="C138">
+        <v>0.00967461445743672</v>
+      </c>
+      <c r="D138">
+        <v>0.9808655482161148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>0.144978430239848</v>
+      </c>
+      <c r="C139">
+        <v>0.1519335573507409</v>
+      </c>
+      <c r="D139">
+        <v>0.7030880124094112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0.9250510042173388</v>
+      </c>
+      <c r="C140">
+        <v>0.07238291436171322</v>
+      </c>
+      <c r="D140">
+        <v>0.002566081420948075</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>0.01659482479944942</v>
+      </c>
+      <c r="C141">
+        <v>0.1252755745720961</v>
+      </c>
+      <c r="D141">
+        <v>0.8581296006284544</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>0.9928528614091346</v>
+      </c>
+      <c r="C142">
+        <v>0.003923327336994874</v>
+      </c>
+      <c r="D142">
+        <v>0.003223811253870521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>0.0435958534632566</v>
+      </c>
+      <c r="C143">
+        <v>0.04123898545131589</v>
+      </c>
+      <c r="D143">
+        <v>0.9151651610854276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>0.02788786224600011</v>
+      </c>
+      <c r="C144">
+        <v>0.00490032741180696</v>
+      </c>
+      <c r="D144">
+        <v>0.9672118103421931</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>0.02440185588047878</v>
+      </c>
+      <c r="C145">
+        <v>0.02468238734331112</v>
+      </c>
+      <c r="D145">
+        <v>0.9509157567762101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>0.1529759283359269</v>
+      </c>
+      <c r="C146">
+        <v>0.01635450663245759</v>
+      </c>
+      <c r="D146">
+        <v>0.8306695650316156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>0.02889124157819629</v>
+      </c>
+      <c r="C147">
+        <v>0.02477254654309924</v>
+      </c>
+      <c r="D147">
+        <v>0.9463362118787044</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>0.003308364163013461</v>
+      </c>
+      <c r="C148">
+        <v>0.9933440248349454</v>
+      </c>
+      <c r="D148">
+        <v>0.003347611002041046</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>0.03383747497187403</v>
+      </c>
+      <c r="C149">
+        <v>0.3048945813233856</v>
+      </c>
+      <c r="D149">
+        <v>0.6612679437047404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>0.1094729422618632</v>
+      </c>
+      <c r="C150">
+        <v>0.08262867506565511</v>
+      </c>
+      <c r="D150">
+        <v>0.8078983826724818</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>0.02778164732550024</v>
+      </c>
+      <c r="C151">
+        <v>0.02592158789145584</v>
+      </c>
+      <c r="D151">
+        <v>0.9462967647830439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>0.007268128875920233</v>
+      </c>
+      <c r="C152">
+        <v>0.9323775792414176</v>
+      </c>
+      <c r="D152">
+        <v>0.06035429188266224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>0.002978484671533813</v>
+      </c>
+      <c r="C153">
+        <v>0.101293293597077</v>
+      </c>
+      <c r="D153">
+        <v>0.8957282217313892</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>0.02173671634833628</v>
+      </c>
+      <c r="C154">
+        <v>0.3796149999794624</v>
+      </c>
+      <c r="D154">
+        <v>0.5986482836722012</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>0.04427179008814099</v>
+      </c>
+      <c r="C155">
+        <v>0.06117968955713286</v>
+      </c>
+      <c r="D155">
+        <v>0.8945485203547262</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>0.01467824263139124</v>
+      </c>
+      <c r="C156">
+        <v>0.06244833591028218</v>
+      </c>
+      <c r="D156">
+        <v>0.9228734214583265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>0.007396531726191187</v>
+      </c>
+      <c r="C157">
+        <v>0.007507512177385191</v>
+      </c>
+      <c r="D157">
+        <v>0.9850959560964236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>0.02866365202685752</v>
+      </c>
+      <c r="C158">
+        <v>0.1479447716760577</v>
+      </c>
+      <c r="D158">
+        <v>0.8233915762970848</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>0.3859799690679861</v>
+      </c>
+      <c r="C159">
+        <v>0.4989775409334856</v>
+      </c>
+      <c r="D159">
+        <v>0.1150424899985285</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>0.4528963700444334</v>
+      </c>
+      <c r="C160">
+        <v>0.4136069041098235</v>
+      </c>
+      <c r="D160">
+        <v>0.1334967258457431</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>0.2821752912613391</v>
+      </c>
+      <c r="C161">
+        <v>0.1970849980605045</v>
+      </c>
+      <c r="D161">
+        <v>0.5207397106781563</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>0.3445435155002777</v>
+      </c>
+      <c r="C162">
+        <v>0.01059830559721468</v>
+      </c>
+      <c r="D162">
+        <v>0.6448581789025077</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>0.008793281952008201</v>
+      </c>
+      <c r="C163">
+        <v>0.007271741496090702</v>
+      </c>
+      <c r="D163">
+        <v>0.9839349765519011</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>0.02510634451324813</v>
+      </c>
+      <c r="C164">
+        <v>0.02409014572678484</v>
+      </c>
+      <c r="D164">
+        <v>0.950803509759967</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>0.08908633504502932</v>
+      </c>
+      <c r="C165">
+        <v>0.9075103110317827</v>
+      </c>
+      <c r="D165">
+        <v>0.003403353923188056</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>0.05162732542622155</v>
+      </c>
+      <c r="C166">
+        <v>0.04900910333395599</v>
+      </c>
+      <c r="D166">
+        <v>0.8993635712398225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>0.2887747921978853</v>
+      </c>
+      <c r="C167">
+        <v>0.3301273201910393</v>
+      </c>
+      <c r="D167">
+        <v>0.3810978876110754</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>0.01535834847396078</v>
+      </c>
+      <c r="C168">
+        <v>0.2305714715568602</v>
+      </c>
+      <c r="D168">
+        <v>0.754070179969179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>0.08705252081084337</v>
+      </c>
+      <c r="C169">
+        <v>0.02160192342290926</v>
+      </c>
+      <c r="D169">
+        <v>0.8913455557662475</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>0.2270232612843629</v>
+      </c>
+      <c r="C170">
+        <v>0.007258534825202309</v>
+      </c>
+      <c r="D170">
+        <v>0.7657182038904348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>0.1185511757009542</v>
+      </c>
+      <c r="C171">
+        <v>0.03081321970956733</v>
+      </c>
+      <c r="D171">
+        <v>0.8506356045894785</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>0.006231925084933803</v>
+      </c>
+      <c r="C172">
+        <v>0.005372795756024861</v>
+      </c>
+      <c r="D172">
+        <v>0.9883952791590414</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>0.01320738047663067</v>
+      </c>
+      <c r="C173">
+        <v>0.01385310489269079</v>
+      </c>
+      <c r="D173">
+        <v>0.9729395146306785</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>0.4916687918121806</v>
+      </c>
+      <c r="C174">
+        <v>0.2557756299852642</v>
+      </c>
+      <c r="D174">
+        <v>0.2525555782025553</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>0.008632778522881706</v>
+      </c>
+      <c r="C175">
+        <v>0.008302228125787871</v>
+      </c>
+      <c r="D175">
+        <v>0.9830649933513305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>0.3455644374914127</v>
+      </c>
+      <c r="C176">
+        <v>0.366693335098875</v>
+      </c>
+      <c r="D176">
+        <v>0.2877422274097121</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>0.3813646642702577</v>
+      </c>
+      <c r="C177">
+        <v>0.5782851415059034</v>
+      </c>
+      <c r="D177">
+        <v>0.040350194223839</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>0.01569444702031263</v>
+      </c>
+      <c r="C178">
+        <v>0.3043627239109725</v>
+      </c>
+      <c r="D178">
+        <v>0.6799428290687148</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>0.9946149407516336</v>
+      </c>
+      <c r="C179">
+        <v>0.002787821726643753</v>
+      </c>
+      <c r="D179">
+        <v>0.002597237521722724</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>0.9909840138294111</v>
+      </c>
+      <c r="C180">
+        <v>0.004495226703078209</v>
+      </c>
+      <c r="D180">
+        <v>0.004520759467510647</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>0.8810798394608326</v>
+      </c>
+      <c r="C181">
+        <v>0.01106975726208124</v>
+      </c>
+      <c r="D181">
+        <v>0.1078504032770862</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182">
+        <v>0.01467316911805232</v>
+      </c>
+      <c r="C182">
+        <v>0.01421440566598991</v>
+      </c>
+      <c r="D182">
+        <v>0.9711124252159578</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>0.01365286381085735</v>
+      </c>
+      <c r="C183">
+        <v>0.09716174215143533</v>
+      </c>
+      <c r="D183">
+        <v>0.8891853940377074</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>0.004536461781426206</v>
+      </c>
+      <c r="C184">
+        <v>0.004799462968462108</v>
+      </c>
+      <c r="D184">
+        <v>0.9906640752501118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>0.06748213845853178</v>
+      </c>
+      <c r="C185">
+        <v>0.06714875279204786</v>
+      </c>
+      <c r="D185">
+        <v>0.8653691087494204</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>0.8660126850247</v>
+      </c>
+      <c r="C186">
+        <v>0.003346462381053756</v>
+      </c>
+      <c r="D186">
+        <v>0.1306408525942463</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>0.3266938525967649</v>
+      </c>
+      <c r="C187">
+        <v>0.6705743117520807</v>
+      </c>
+      <c r="D187">
+        <v>0.00273183565115434</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>0.386572895122195</v>
+      </c>
+      <c r="C188">
+        <v>0.2643731250800517</v>
+      </c>
+      <c r="D188">
+        <v>0.3490539797977533</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>0.01827041709655359</v>
+      </c>
+      <c r="C189">
+        <v>0.01888831333750294</v>
+      </c>
+      <c r="D189">
+        <v>0.9628412695659435</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>0.00864366056981104</v>
+      </c>
+      <c r="C190">
+        <v>0.008664200369592876</v>
+      </c>
+      <c r="D190">
+        <v>0.9826921390605962</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>0.02847581678619578</v>
+      </c>
+      <c r="C191">
+        <v>0.03097375096172626</v>
+      </c>
+      <c r="D191">
+        <v>0.940550432252078</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192">
+        <v>0.9811604982203991</v>
+      </c>
+      <c r="C192">
+        <v>0.009170000545451628</v>
+      </c>
+      <c r="D192">
+        <v>0.009669501234149162</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>0.9832633082410972</v>
+      </c>
+      <c r="C193">
+        <v>0.008386934961385629</v>
+      </c>
+      <c r="D193">
+        <v>0.008349756797517096</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>0.393446809724207</v>
+      </c>
+      <c r="C194">
+        <v>0.03527693017731332</v>
+      </c>
+      <c r="D194">
+        <v>0.5712762600984799</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>0.6669434219429416</v>
+      </c>
+      <c r="C195">
+        <v>0.3307504778296701</v>
+      </c>
+      <c r="D195">
+        <v>0.002306100227388334</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>0.02162723842439047</v>
+      </c>
+      <c r="C196">
+        <v>0.02020026442179135</v>
+      </c>
+      <c r="D196">
+        <v>0.9581724971538181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197">
+        <v>0.3646086500338452</v>
+      </c>
+      <c r="C197">
+        <v>0.02985071752572298</v>
+      </c>
+      <c r="D197">
+        <v>0.6055406324404319</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198">
+        <v>0.03802884962720907</v>
+      </c>
+      <c r="C198">
+        <v>0.03798232822932019</v>
+      </c>
+      <c r="D198">
+        <v>0.9239888221434707</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>0.03361863193991568</v>
+      </c>
+      <c r="C199">
+        <v>0.156113470231914</v>
+      </c>
+      <c r="D199">
+        <v>0.8102678978281703</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200">
+        <v>0.5615627071173759</v>
+      </c>
+      <c r="C200">
+        <v>0.02443618150799962</v>
+      </c>
+      <c r="D200">
+        <v>0.4140011113746246</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>0.03916246297665088</v>
+      </c>
+      <c r="C201">
+        <v>0.03851081830453752</v>
+      </c>
+      <c r="D201">
+        <v>0.9223267187188116</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>0.8484160024298912</v>
+      </c>
+      <c r="C202">
+        <v>0.1467035755362347</v>
+      </c>
+      <c r="D202">
+        <v>0.004880422033874136</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>0.02247625472579191</v>
+      </c>
+      <c r="C203">
+        <v>0.02270576896416563</v>
+      </c>
+      <c r="D203">
+        <v>0.9548179763100425</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>0.02447755467311324</v>
+      </c>
+      <c r="C204">
+        <v>0.1336162157265381</v>
+      </c>
+      <c r="D204">
+        <v>0.8419062296003486</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>0.3385512629795662</v>
+      </c>
+      <c r="C205">
+        <v>0.1073682596266548</v>
+      </c>
+      <c r="D205">
+        <v>0.554080477393779</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>0.02697984884261319</v>
+      </c>
+      <c r="C206">
+        <v>0.0265120725369745</v>
+      </c>
+      <c r="D206">
+        <v>0.9465080786204123</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207">
+        <v>0.4549780950376198</v>
+      </c>
+      <c r="C207">
+        <v>0.4914995383517246</v>
+      </c>
+      <c r="D207">
+        <v>0.05352236661065572</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>0.0229674225727479</v>
+      </c>
+      <c r="C208">
+        <v>0.4322060923541646</v>
+      </c>
+      <c r="D208">
+        <v>0.5448264850730876</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>0.08337493915087928</v>
+      </c>
+      <c r="C209">
+        <v>0.01003695249405109</v>
+      </c>
+      <c r="D209">
+        <v>0.9065881083550696</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>0.01629964790557821</v>
+      </c>
+      <c r="C210">
+        <v>0.09978963562518173</v>
+      </c>
+      <c r="D210">
+        <v>0.8839107164692401</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>0.03231969005031882</v>
+      </c>
+      <c r="C211">
+        <v>0.4469735982747847</v>
+      </c>
+      <c r="D211">
+        <v>0.5207067116748965</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>0.5017394782901476</v>
+      </c>
+      <c r="C212">
+        <v>0.04928355127774844</v>
+      </c>
+      <c r="D212">
+        <v>0.4489769704321039</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>0.9146387155125004</v>
+      </c>
+      <c r="C213">
+        <v>0.01047521024698834</v>
+      </c>
+      <c r="D213">
+        <v>0.07488607424051122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>0.02176057066877295</v>
+      </c>
+      <c r="C214">
+        <v>0.02097448806884109</v>
+      </c>
+      <c r="D214">
+        <v>0.9572649412623859</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>0.1424530741931067</v>
+      </c>
+      <c r="C215">
+        <v>0.04559935457696201</v>
+      </c>
+      <c r="D215">
+        <v>0.8119475712299312</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>0.2289498424798694</v>
+      </c>
+      <c r="C216">
+        <v>0.3505324099353105</v>
+      </c>
+      <c r="D216">
+        <v>0.4205177475848201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217">
+        <v>0.9920710443191285</v>
+      </c>
+      <c r="C217">
+        <v>0.003932781314047906</v>
+      </c>
+      <c r="D217">
+        <v>0.003996174366823538</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218">
+        <v>0.1540350527065766</v>
+      </c>
+      <c r="C218">
+        <v>0.2994579643595403</v>
+      </c>
+      <c r="D218">
+        <v>0.5465069829338831</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219">
+        <v>0.01338360659093368</v>
+      </c>
+      <c r="C219">
+        <v>0.01380182288572801</v>
+      </c>
+      <c r="D219">
+        <v>0.9728145705233384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220">
+        <v>0.1712785551409267</v>
+      </c>
+      <c r="C220">
+        <v>0.07343233750235871</v>
+      </c>
+      <c r="D220">
+        <v>0.7552891073567145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221">
+        <v>0.01022274936074767</v>
+      </c>
+      <c r="C221">
+        <v>0.08790538080970513</v>
+      </c>
+      <c r="D221">
+        <v>0.9018718698295473</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222">
+        <v>0.8172223557806487</v>
+      </c>
+      <c r="C222">
+        <v>0.01235660314333905</v>
+      </c>
+      <c r="D222">
+        <v>0.1704210410760123</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223">
+        <v>0.6852632798135931</v>
+      </c>
+      <c r="C223">
+        <v>0.1823167009024984</v>
+      </c>
+      <c r="D223">
+        <v>0.1324200192839083</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224">
+        <v>0.3913504448214316</v>
+      </c>
+      <c r="C224">
+        <v>0.2836838234737617</v>
+      </c>
+      <c r="D224">
+        <v>0.3249657317048068</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225">
+        <v>0.009762260115354953</v>
+      </c>
+      <c r="C225">
+        <v>0.009160853171441538</v>
+      </c>
+      <c r="D225">
+        <v>0.9810768867132036</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226">
+        <v>0.008864637099257099</v>
+      </c>
+      <c r="C226">
+        <v>0.008005142911719415</v>
+      </c>
+      <c r="D226">
+        <v>0.9831302199890235</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227">
+        <v>0.01358929169475864</v>
+      </c>
+      <c r="C227">
+        <v>0.01398343403543851</v>
+      </c>
+      <c r="D227">
+        <v>0.9724272742698028</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228">
+        <v>0.5633459353965928</v>
+      </c>
+      <c r="C228">
+        <v>0.2904290503187416</v>
+      </c>
+      <c r="D228">
+        <v>0.1462250142846655</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229">
+        <v>0.06261566279184595</v>
+      </c>
+      <c r="C229">
+        <v>0.3371447937562261</v>
+      </c>
+      <c r="D229">
+        <v>0.6002395434519281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230">
+        <v>0.03106378761305256</v>
+      </c>
+      <c r="C230">
+        <v>0.03048330399352983</v>
+      </c>
+      <c r="D230">
+        <v>0.9384529083934177</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231">
+        <v>0.006514705068603319</v>
+      </c>
+      <c r="C231">
+        <v>0.006918160366218698</v>
+      </c>
+      <c r="D231">
+        <v>0.986567134565178</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232">
+        <v>0.2419638252040039</v>
+      </c>
+      <c r="C232">
+        <v>0.02860208332297217</v>
+      </c>
+      <c r="D232">
+        <v>0.729434091473024</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233">
+        <v>0.01357365629645932</v>
+      </c>
+      <c r="C233">
+        <v>0.2606192098549755</v>
+      </c>
+      <c r="D233">
+        <v>0.7258071338485652</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234">
+        <v>0.01697373646247046</v>
+      </c>
+      <c r="C234">
+        <v>0.01677403624842023</v>
+      </c>
+      <c r="D234">
+        <v>0.9662522272891093</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235">
+        <v>0.9947795062540534</v>
+      </c>
+      <c r="C235">
+        <v>0.002758189213275968</v>
+      </c>
+      <c r="D235">
+        <v>0.002462304532670594</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236">
+        <v>0.02489829508998433</v>
+      </c>
+      <c r="C236">
+        <v>0.298606713625295</v>
+      </c>
+      <c r="D236">
+        <v>0.6764949912847208</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237">
+        <v>0.02995917688114605</v>
+      </c>
+      <c r="C237">
+        <v>0.02958854062295244</v>
+      </c>
+      <c r="D237">
+        <v>0.9404522824959015</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238">
+        <v>0.01222165127333073</v>
+      </c>
+      <c r="C238">
+        <v>0.0134313693703965</v>
+      </c>
+      <c r="D238">
+        <v>0.9743469793562728</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239">
+        <v>0.02193587393223012</v>
+      </c>
+      <c r="C239">
+        <v>0.3991866005408152</v>
+      </c>
+      <c r="D239">
+        <v>0.5788775255269546</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240">
+        <v>0.8303246042763399</v>
+      </c>
+      <c r="C240">
+        <v>0.1456225670122292</v>
+      </c>
+      <c r="D240">
+        <v>0.02405282871143093</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241">
+        <v>0.007829162367352312</v>
+      </c>
+      <c r="C241">
+        <v>0.007384245170869751</v>
+      </c>
+      <c r="D241">
+        <v>0.984786592461778</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242">
+        <v>0.04976532324643794</v>
+      </c>
+      <c r="C242">
+        <v>0.1234381875948785</v>
+      </c>
+      <c r="D242">
+        <v>0.8267964891586835</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243">
+        <v>0.004238434882984856</v>
+      </c>
+      <c r="C243">
+        <v>0.003758669963353488</v>
+      </c>
+      <c r="D243">
+        <v>0.9920028951536617</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244">
+        <v>0.03098282943418709</v>
+      </c>
+      <c r="C244">
+        <v>0.03094312411063094</v>
+      </c>
+      <c r="D244">
+        <v>0.938074046455182</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245">
+        <v>0.5413191178105873</v>
+      </c>
+      <c r="C245">
+        <v>0.1708136466255932</v>
+      </c>
+      <c r="D245">
+        <v>0.2878672355638195</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246">
+        <v>0.05892822521489761</v>
+      </c>
+      <c r="C246">
+        <v>0.2946631939279915</v>
+      </c>
+      <c r="D246">
+        <v>0.6464085808571109</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247">
+        <v>0.02185690307306238</v>
+      </c>
+      <c r="C247">
+        <v>0.5170360339924691</v>
+      </c>
+      <c r="D247">
+        <v>0.4611070629344686</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248">
+        <v>0.4864528103045994</v>
+      </c>
+      <c r="C248">
+        <v>0.5082383027480355</v>
+      </c>
+      <c r="D248">
+        <v>0.005308886947365147</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249">
+        <v>0.0296153466241522</v>
+      </c>
+      <c r="C249">
+        <v>0.02637005571858009</v>
+      </c>
+      <c r="D249">
+        <v>0.9440145976572677</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250">
+        <v>0.7329740858998222</v>
+      </c>
+      <c r="C250">
+        <v>0.2440223417052247</v>
+      </c>
+      <c r="D250">
+        <v>0.02300357239495306</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251">
+        <v>0.1153456960994833</v>
+      </c>
+      <c r="C251">
+        <v>0.0847537973473851</v>
+      </c>
+      <c r="D251">
+        <v>0.7999005065531316</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252">
+        <v>0.2685430052272181</v>
+      </c>
+      <c r="C252">
+        <v>0.1330982684411818</v>
+      </c>
+      <c r="D252">
+        <v>0.5983587263316001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253">
+        <v>0.9343800298896349</v>
+      </c>
+      <c r="C253">
+        <v>0.06348365060832073</v>
+      </c>
+      <c r="D253">
+        <v>0.002136319502044299</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254">
+        <v>0.004933463775523459</v>
+      </c>
+      <c r="C254">
+        <v>0.03569323596446315</v>
+      </c>
+      <c r="D254">
+        <v>0.9593733002600133</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255">
+        <v>0.01164420879276442</v>
+      </c>
+      <c r="C255">
+        <v>0.01246390577211512</v>
+      </c>
+      <c r="D255">
+        <v>0.9758918854351205</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256">
+        <v>0.4388428273834939</v>
+      </c>
+      <c r="C256">
+        <v>0.5578687933558734</v>
+      </c>
+      <c r="D256">
+        <v>0.003288379260632732</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257">
+        <v>0.6551279036561702</v>
+      </c>
+      <c r="C257">
+        <v>0.3416096036687413</v>
+      </c>
+      <c r="D257">
+        <v>0.003262492675088407</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>0.1730795936292822</v>
+      </c>
+      <c r="C258">
+        <v>0.8242912776318215</v>
+      </c>
+      <c r="D258">
+        <v>0.002629128738896249</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259">
+        <v>0.2052113709874915</v>
+      </c>
+      <c r="C259">
+        <v>0.02579540705473465</v>
+      </c>
+      <c r="D259">
+        <v>0.7689932219577738</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260">
+        <v>0.2718529723076628</v>
+      </c>
+      <c r="C260">
+        <v>0.002759488613972202</v>
+      </c>
+      <c r="D260">
+        <v>0.725387539078365</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261">
+        <v>0.3912582334677344</v>
+      </c>
+      <c r="C261">
+        <v>0.03150640576812275</v>
+      </c>
+      <c r="D261">
+        <v>0.5772353607641428</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262">
+        <v>0.3779446877513071</v>
+      </c>
+      <c r="C262">
+        <v>0.006820300852276264</v>
+      </c>
+      <c r="D262">
+        <v>0.6152350113964168</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263">
+        <v>0.6059476071484312</v>
+      </c>
+      <c r="C263">
+        <v>0.003206431506495459</v>
+      </c>
+      <c r="D263">
+        <v>0.3908459613450734</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264">
+        <v>0.03845857518973042</v>
+      </c>
+      <c r="C264">
+        <v>0.03920887198102734</v>
+      </c>
+      <c r="D264">
+        <v>0.9223325528292422</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265">
+        <v>0.992631148700056</v>
+      </c>
+      <c r="C265">
+        <v>0.003325597986390232</v>
+      </c>
+      <c r="D265">
+        <v>0.004043253313553756</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266">
+        <v>0.04882676547340144</v>
+      </c>
+      <c r="C266">
+        <v>0.04510561657951048</v>
+      </c>
+      <c r="D266">
+        <v>0.9060676179470881</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267">
+        <v>0.08565154643438626</v>
+      </c>
+      <c r="C267">
+        <v>0.08754162692392328</v>
+      </c>
+      <c r="D267">
+        <v>0.8268068266416904</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268">
+        <v>0.9166316784686275</v>
+      </c>
+      <c r="C268">
+        <v>0.07773449181372986</v>
+      </c>
+      <c r="D268">
+        <v>0.005633829717642569</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269">
+        <v>0.009257636361481738</v>
+      </c>
+      <c r="C269">
+        <v>0.009191115554922124</v>
+      </c>
+      <c r="D269">
+        <v>0.9815512480835961</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270">
+        <v>0.05319965415877877</v>
+      </c>
+      <c r="C270">
+        <v>0.6722179928448154</v>
+      </c>
+      <c r="D270">
+        <v>0.2745823529964057</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271">
+        <v>0.1603165452600097</v>
+      </c>
+      <c r="C271">
+        <v>0.01890516861459941</v>
+      </c>
+      <c r="D271">
+        <v>0.8207782861253909</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272">
+        <v>0.003621560274261759</v>
+      </c>
+      <c r="C272">
+        <v>0.9809362479008056</v>
+      </c>
+      <c r="D272">
+        <v>0.01544219182493265</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273">
+        <v>0.9715097314086969</v>
+      </c>
+      <c r="C273">
+        <v>0.002633167535186125</v>
+      </c>
+      <c r="D273">
+        <v>0.02585710105611699</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274">
+        <v>0.011256593767288</v>
+      </c>
+      <c r="C274">
+        <v>0.3310009537526166</v>
+      </c>
+      <c r="D274">
+        <v>0.6577424524800954</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275">
+        <v>0.01443530371251084</v>
+      </c>
+      <c r="C275">
+        <v>0.01080451409229014</v>
+      </c>
+      <c r="D275">
+        <v>0.9747601821951991</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276">
+        <v>0.001860574735238159</v>
+      </c>
+      <c r="C276">
+        <v>0.9965194354403272</v>
+      </c>
+      <c r="D276">
+        <v>0.001619989824434605</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277">
+        <v>0.007081891077028279</v>
+      </c>
+      <c r="C277">
+        <v>0.007004954890517569</v>
+      </c>
+      <c r="D277">
+        <v>0.9859131540324542</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278">
+        <v>0.09427877146363281</v>
+      </c>
+      <c r="C278">
+        <v>0.02711673059545107</v>
+      </c>
+      <c r="D278">
+        <v>0.8786044979409161</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279">
+        <v>0.007089117807443183</v>
+      </c>
+      <c r="C279">
+        <v>0.007141194144679069</v>
+      </c>
+      <c r="D279">
+        <v>0.9857696880478777</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280">
+        <v>0.01795090289022798</v>
+      </c>
+      <c r="C280">
+        <v>0.01673039106971521</v>
+      </c>
+      <c r="D280">
+        <v>0.9653187060400568</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281">
+        <v>0.01305870771151849</v>
+      </c>
+      <c r="C281">
+        <v>0.01326158964704296</v>
+      </c>
+      <c r="D281">
+        <v>0.9736797026414385</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282">
+        <v>0.02452875263719473</v>
+      </c>
+      <c r="C282">
+        <v>0.0243997720082115</v>
+      </c>
+      <c r="D282">
+        <v>0.9510714753545937</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283">
+        <v>0.2196612593829771</v>
+      </c>
+      <c r="C283">
+        <v>0.00274398011024325</v>
+      </c>
+      <c r="D283">
+        <v>0.7775947605067796</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284">
+        <v>0.9338982009550099</v>
+      </c>
+      <c r="C284">
+        <v>0.004252003006101342</v>
+      </c>
+      <c r="D284">
+        <v>0.06184979603888886</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285">
+        <v>0.7709709479220153</v>
+      </c>
+      <c r="C285">
+        <v>0.2233987422710994</v>
+      </c>
+      <c r="D285">
+        <v>0.005630309806885366</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286">
+        <v>0.007154431349862826</v>
+      </c>
+      <c r="C286">
+        <v>0.09629726789253765</v>
+      </c>
+      <c r="D286">
+        <v>0.8965483007575996</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287">
+        <v>0.283910155602147</v>
+      </c>
+      <c r="C287">
+        <v>0.01382792146441366</v>
+      </c>
+      <c r="D287">
+        <v>0.7022619229334394</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288">
+        <v>0.0285591826436675</v>
+      </c>
+      <c r="C288">
+        <v>0.02884846695383459</v>
+      </c>
+      <c r="D288">
+        <v>0.942592350402498</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289">
+        <v>0.2541861363461435</v>
+      </c>
+      <c r="C289">
+        <v>0.662788447736622</v>
+      </c>
+      <c r="D289">
+        <v>0.0830254159172345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290">
+        <v>0.04159780276475805</v>
+      </c>
+      <c r="C290">
+        <v>0.03490556651135128</v>
+      </c>
+      <c r="D290">
+        <v>0.9234966307238907</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291">
+        <v>0.04147121688767712</v>
+      </c>
+      <c r="C291">
+        <v>0.5679710607591503</v>
+      </c>
+      <c r="D291">
+        <v>0.3905577223531727</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292">
+        <v>0.009182857036204396</v>
+      </c>
+      <c r="C292">
+        <v>0.08231275183870472</v>
+      </c>
+      <c r="D292">
+        <v>0.908504391125091</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293">
+        <v>0.2249761512071216</v>
+      </c>
+      <c r="C293">
+        <v>0.7397136445056895</v>
+      </c>
+      <c r="D293">
+        <v>0.03531020428718878</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294">
+        <v>0.007943701269262303</v>
+      </c>
+      <c r="C294">
+        <v>0.1091695925092354</v>
+      </c>
+      <c r="D294">
+        <v>0.8828867062215023</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295">
+        <v>0.9882401613462608</v>
+      </c>
+      <c r="C295">
+        <v>0.00582469525115511</v>
+      </c>
+      <c r="D295">
+        <v>0.00593514340258398</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296">
+        <v>0.3957836687009181</v>
+      </c>
+      <c r="C296">
+        <v>0.0580432592226867</v>
+      </c>
+      <c r="D296">
+        <v>0.5461730720763952</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297">
+        <v>0.004293549605421614</v>
+      </c>
+      <c r="C297">
+        <v>0.05484357572384114</v>
+      </c>
+      <c r="D297">
+        <v>0.9408628746707373</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298">
+        <v>0.0142149791215087</v>
+      </c>
+      <c r="C298">
+        <v>0.5454126376465609</v>
+      </c>
+      <c r="D298">
+        <v>0.4403723832319305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299">
+        <v>0.01240379518674367</v>
+      </c>
+      <c r="C299">
+        <v>0.4691699933169752</v>
+      </c>
+      <c r="D299">
+        <v>0.5184262114962811</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300">
+        <v>0.002990564057476843</v>
+      </c>
+      <c r="C300">
+        <v>0.9940482963484837</v>
+      </c>
+      <c r="D300">
+        <v>0.002961139594039535</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301">
+        <v>0.5804723749174567</v>
+      </c>
+      <c r="C301">
+        <v>0.372939660201503</v>
+      </c>
+      <c r="D301">
+        <v>0.04658796488104022</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302">
+        <v>0.7095189625562848</v>
+      </c>
+      <c r="C302">
+        <v>0.01423709462627985</v>
+      </c>
+      <c r="D302">
+        <v>0.2762439428174354</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303">
+        <v>0.009441975448754218</v>
+      </c>
+      <c r="C303">
+        <v>0.07477285240809821</v>
+      </c>
+      <c r="D303">
+        <v>0.9157851721431476</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304">
+        <v>0.3328418946126608</v>
+      </c>
+      <c r="C304">
+        <v>0.0188979126631311</v>
+      </c>
+      <c r="D304">
+        <v>0.6482601927242081</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305">
+        <v>0.4226441863203246</v>
+      </c>
+      <c r="C305">
+        <v>0.4262782270477147</v>
+      </c>
+      <c r="D305">
+        <v>0.1510775866319607</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306">
+        <v>0.1672183924845408</v>
+      </c>
+      <c r="C306">
+        <v>0.7737268058595963</v>
+      </c>
+      <c r="D306">
+        <v>0.059054801655863</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307">
+        <v>0.8817757906026888</v>
+      </c>
+      <c r="C307">
+        <v>0.115078100449113</v>
+      </c>
+      <c r="D307">
+        <v>0.003146108948198121</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308">
+        <v>0.03784596056019678</v>
+      </c>
+      <c r="C308">
+        <v>0.03778670724474616</v>
+      </c>
+      <c r="D308">
+        <v>0.9243673321950571</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309">
+        <v>0.007749935747996596</v>
+      </c>
+      <c r="C309">
+        <v>0.007040808182374499</v>
+      </c>
+      <c r="D309">
+        <v>0.9852092560696288</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310">
+        <v>0.8740740015768284</v>
+      </c>
+      <c r="C310">
+        <v>0.1041691978444548</v>
+      </c>
+      <c r="D310">
+        <v>0.02175680057871679</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311">
+        <v>0.02943305430774499</v>
+      </c>
+      <c r="C311">
+        <v>0.6133062795157638</v>
+      </c>
+      <c r="D311">
+        <v>0.3572606661764913</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312">
+        <v>0.01446502223270418</v>
+      </c>
+      <c r="C312">
+        <v>0.01397961176435725</v>
+      </c>
+      <c r="D312">
+        <v>0.9715553660029386</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313">
+        <v>0.01819466105414688</v>
+      </c>
+      <c r="C313">
+        <v>0.4288873903866999</v>
+      </c>
+      <c r="D313">
+        <v>0.5529179485591531</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314">
+        <v>0.08756046044696503</v>
+      </c>
+      <c r="C314">
+        <v>0.9090094555701496</v>
+      </c>
+      <c r="D314">
+        <v>0.003430083982885333</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315">
+        <v>0.02026733742791705</v>
+      </c>
+      <c r="C315">
+        <v>0.5342547790730431</v>
+      </c>
+      <c r="D315">
+        <v>0.4454778834990399</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316">
+        <v>0.3696757165166562</v>
+      </c>
+      <c r="C316">
+        <v>0.6266742594875255</v>
+      </c>
+      <c r="D316">
+        <v>0.003650023995818176</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317">
+        <v>0.9595532514129119</v>
+      </c>
+      <c r="C317">
+        <v>0.03853750225711735</v>
+      </c>
+      <c r="D317">
+        <v>0.001909246329970691</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318">
+        <v>0.9642026340507113</v>
+      </c>
+      <c r="C318">
+        <v>0.0144821763887229</v>
+      </c>
+      <c r="D318">
+        <v>0.02131518956056595</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319">
+        <v>0.6974519497697272</v>
+      </c>
+      <c r="C319">
+        <v>0.07942414332100915</v>
+      </c>
+      <c r="D319">
+        <v>0.2231239069092636</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320">
+        <v>0.7676528823997479</v>
+      </c>
+      <c r="C320">
+        <v>0.04634838991652487</v>
+      </c>
+      <c r="D320">
+        <v>0.1859987276837271</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321">
+        <v>0.01524962120311853</v>
+      </c>
+      <c r="C321">
+        <v>0.6773684751936272</v>
+      </c>
+      <c r="D321">
+        <v>0.3073819036032542</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322">
+        <v>0.3285467698451652</v>
+      </c>
+      <c r="C322">
+        <v>0.3401086333037612</v>
+      </c>
+      <c r="D322">
+        <v>0.3313445968510738</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323">
+        <v>0.005498094117009394</v>
+      </c>
+      <c r="C323">
+        <v>0.005314938710812954</v>
+      </c>
+      <c r="D323">
+        <v>0.9891869671721776</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324">
+        <v>0.02190593737460042</v>
+      </c>
+      <c r="C324">
+        <v>0.02101418280271703</v>
+      </c>
+      <c r="D324">
+        <v>0.9570798798226825</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325">
+        <v>0.01350055714271139</v>
+      </c>
+      <c r="C325">
+        <v>0.05702152961746388</v>
+      </c>
+      <c r="D325">
+        <v>0.9294779132398248</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326">
+        <v>0.02890196880605102</v>
+      </c>
+      <c r="C326">
+        <v>0.02819881682346794</v>
+      </c>
+      <c r="D326">
+        <v>0.942899214370481</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327">
+        <v>0.02233806074129097</v>
+      </c>
+      <c r="C327">
+        <v>0.4497643967272935</v>
+      </c>
+      <c r="D327">
+        <v>0.5278975425314156</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328">
+        <v>0.7543023318128677</v>
+      </c>
+      <c r="C328">
+        <v>0.2392018425872595</v>
+      </c>
+      <c r="D328">
+        <v>0.006495825599872791</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329">
+        <v>0.02731646293786689</v>
+      </c>
+      <c r="C329">
+        <v>0.2439669305259612</v>
+      </c>
+      <c r="D329">
+        <v>0.7287166065361719</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330">
+        <v>0.5842732522215182</v>
+      </c>
+      <c r="C330">
+        <v>0.05953577566141457</v>
+      </c>
+      <c r="D330">
+        <v>0.3561909721170672</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331">
+        <v>0.01038363801088853</v>
+      </c>
+      <c r="C331">
+        <v>0.5127291528881278</v>
+      </c>
+      <c r="D331">
+        <v>0.4768872091009836</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332">
+        <v>0.01682435290856751</v>
+      </c>
+      <c r="C332">
+        <v>0.01624341477264345</v>
+      </c>
+      <c r="D332">
+        <v>0.966932232318789</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333">
+        <v>0.005870332107375894</v>
+      </c>
+      <c r="C333">
+        <v>0.00582927439334215</v>
+      </c>
+      <c r="D333">
+        <v>0.988300393499282</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334">
+        <v>0.02151716850904361</v>
+      </c>
+      <c r="C334">
+        <v>0.02040235842290325</v>
+      </c>
+      <c r="D334">
+        <v>0.9580804730680531</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335">
+        <v>0.04662991779643197</v>
+      </c>
+      <c r="C335">
+        <v>0.0386825321430501</v>
+      </c>
+      <c r="D335">
+        <v>0.9146875500605178</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336">
+        <v>0.007375935378665536</v>
+      </c>
+      <c r="C336">
+        <v>0.007920741271669585</v>
+      </c>
+      <c r="D336">
+        <v>0.9847033233496648</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337">
+        <v>0.07740134544603139</v>
+      </c>
+      <c r="C337">
+        <v>0.1102655770251908</v>
+      </c>
+      <c r="D337">
+        <v>0.8123330775287779</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338">
+        <v>0.0119743390928748</v>
+      </c>
+      <c r="C338">
+        <v>0.1687958836739087</v>
+      </c>
+      <c r="D338">
+        <v>0.8192297772332164</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339">
+        <v>0.007901801985768767</v>
+      </c>
+      <c r="C339">
+        <v>0.007557368302520493</v>
+      </c>
+      <c r="D339">
+        <v>0.9845408297117108</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340">
+        <v>0.006866949511785327</v>
+      </c>
+      <c r="C340">
+        <v>0.9550904063605008</v>
+      </c>
+      <c r="D340">
+        <v>0.03804264412771376</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341">
+        <v>0.01640072746610663</v>
+      </c>
+      <c r="C341">
+        <v>0.01480858024695628</v>
+      </c>
+      <c r="D341">
+        <v>0.968790692286937</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342">
+        <v>0.3034986383863627</v>
+      </c>
+      <c r="C342">
+        <v>0.05413184406196882</v>
+      </c>
+      <c r="D342">
+        <v>0.6423695175516685</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343">
+        <v>0.006949531312993191</v>
+      </c>
+      <c r="C343">
+        <v>0.006998901898837918</v>
+      </c>
+      <c r="D343">
+        <v>0.9860515667881689</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344">
+        <v>0.05834639085996152</v>
+      </c>
+      <c r="C344">
+        <v>0.8990195842704944</v>
+      </c>
+      <c r="D344">
+        <v>0.04263402486954408</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345">
+        <v>0.4197017935189756</v>
+      </c>
+      <c r="C345">
+        <v>0.00483997487124265</v>
+      </c>
+      <c r="D345">
+        <v>0.5754582316097817</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346">
+        <v>0.01503031978588434</v>
+      </c>
+      <c r="C346">
+        <v>0.1687878111082158</v>
+      </c>
+      <c r="D346">
+        <v>0.8161818691058998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347">
+        <v>0.009192691608178523</v>
+      </c>
+      <c r="C347">
+        <v>0.0092518448471472</v>
+      </c>
+      <c r="D347">
+        <v>0.9815554635446744</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348">
+        <v>0.13958388219278</v>
+      </c>
+      <c r="C348">
+        <v>0.8020833885438001</v>
+      </c>
+      <c r="D348">
+        <v>0.05833272926341987</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349">
+        <v>0.02383764457915268</v>
+      </c>
+      <c r="C349">
+        <v>0.5897714491077831</v>
+      </c>
+      <c r="D349">
+        <v>0.3863909063130643</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350">
+        <v>0.3235912991061055</v>
+      </c>
+      <c r="C350">
+        <v>0.2453220107583651</v>
+      </c>
+      <c r="D350">
+        <v>0.4310866901355294</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351">
+        <v>0.00866071146153208</v>
+      </c>
+      <c r="C351">
+        <v>0.007377535628241878</v>
+      </c>
+      <c r="D351">
+        <v>0.983961752910226</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352">
+        <v>0.01898023311322924</v>
+      </c>
+      <c r="C352">
+        <v>0.0198298358184281</v>
+      </c>
+      <c r="D352">
+        <v>0.9611899310683426</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353">
+        <v>0.4124551265923525</v>
+      </c>
+      <c r="C353">
+        <v>0.006561749750736161</v>
+      </c>
+      <c r="D353">
+        <v>0.5809831236569114</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354">
+        <v>0.1144547750296334</v>
+      </c>
+      <c r="C354">
+        <v>0.4160908622047985</v>
+      </c>
+      <c r="D354">
+        <v>0.4694543627655681</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355">
+        <v>0.7163643668619827</v>
+      </c>
+      <c r="C355">
+        <v>0.2380100364486822</v>
+      </c>
+      <c r="D355">
+        <v>0.04562559668933525</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356">
+        <v>0.007127371032933802</v>
+      </c>
+      <c r="C356">
+        <v>0.006964839305913974</v>
+      </c>
+      <c r="D356">
+        <v>0.9859077896611522</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357">
+        <v>0.02337629424046825</v>
+      </c>
+      <c r="C357">
+        <v>0.1415848380932664</v>
+      </c>
+      <c r="D357">
+        <v>0.8350388676662653</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358">
+        <v>0.004582570269170612</v>
+      </c>
+      <c r="C358">
+        <v>0.9776144035061826</v>
+      </c>
+      <c r="D358">
+        <v>0.01780302622464688</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359">
+        <v>0.9004626257587288</v>
+      </c>
+      <c r="C359">
+        <v>0.09887610620619901</v>
+      </c>
+      <c r="D359">
+        <v>0.0006612680350721572</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360">
+        <v>0.9943108166187038</v>
+      </c>
+      <c r="C360">
+        <v>0.002903381265278498</v>
+      </c>
+      <c r="D360">
+        <v>0.002785802116017512</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361">
+        <v>0.4281582709347188</v>
+      </c>
+      <c r="C361">
+        <v>0.07463397086078619</v>
+      </c>
+      <c r="D361">
+        <v>0.497207758204495</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362">
+        <v>0.7253859620297182</v>
+      </c>
+      <c r="C362">
+        <v>0.2703748221405887</v>
+      </c>
+      <c r="D362">
+        <v>0.004239215829692927</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363">
+        <v>0.09918150105183295</v>
+      </c>
+      <c r="C363">
+        <v>0.01639918213942161</v>
+      </c>
+      <c r="D363">
+        <v>0.8844193168087454</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364">
+        <v>0.04315525827970496</v>
+      </c>
+      <c r="C364">
+        <v>0.04382732505987353</v>
+      </c>
+      <c r="D364">
+        <v>0.9130174166604215</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365">
+        <v>0.4203695080299857</v>
+      </c>
+      <c r="C365">
+        <v>0.577547280282909</v>
+      </c>
+      <c r="D365">
+        <v>0.002083211687105232</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366">
+        <v>0.2779444542559814</v>
+      </c>
+      <c r="C366">
+        <v>0.6645477637702966</v>
+      </c>
+      <c r="D366">
+        <v>0.05750778197372219</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367">
+        <v>0.5740151116693938</v>
+      </c>
+      <c r="C367">
+        <v>0.0216149585513248</v>
+      </c>
+      <c r="D367">
+        <v>0.4043699297792815</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368">
+        <v>0.693090458748593</v>
+      </c>
+      <c r="C368">
+        <v>0.03531951312188045</v>
+      </c>
+      <c r="D368">
+        <v>0.2715900281295266</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B369">
+        <v>0.003308315103134078</v>
+      </c>
+      <c r="C369">
+        <v>0.993809170109201</v>
+      </c>
+      <c r="D369">
+        <v>0.002882514787664851</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B370">
+        <v>0.3854983125564589</v>
+      </c>
+      <c r="C370">
+        <v>0.01617608944044004</v>
+      </c>
+      <c r="D370">
+        <v>0.598325598003101</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B371">
+        <v>0.02201102817721221</v>
+      </c>
+      <c r="C371">
+        <v>0.01900379941195553</v>
+      </c>
+      <c r="D371">
+        <v>0.9589851724108323</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B372">
+        <v>0.007010302855834569</v>
+      </c>
+      <c r="C372">
+        <v>0.006625094436837086</v>
+      </c>
+      <c r="D372">
+        <v>0.9863646027073283</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B373">
+        <v>0.04421522833472687</v>
+      </c>
+      <c r="C373">
+        <v>0.3446023432633413</v>
+      </c>
+      <c r="D373">
+        <v>0.6111824284019317</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374">
+        <v>0.1636060740851187</v>
+      </c>
+      <c r="C374">
+        <v>0.1220755502214366</v>
+      </c>
+      <c r="D374">
+        <v>0.7143183756934446</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375">
+        <v>0.1591891303184096</v>
+      </c>
+      <c r="C375">
+        <v>0.04197735661307385</v>
+      </c>
+      <c r="D375">
+        <v>0.7988335130685166</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376">
+        <v>0.6418555571734605</v>
+      </c>
+      <c r="C376">
+        <v>0.2938865036476612</v>
+      </c>
+      <c r="D376">
+        <v>0.06425793917887829</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377">
+        <v>0.6171266720194115</v>
+      </c>
+      <c r="C377">
+        <v>0.0246373198580495</v>
+      </c>
+      <c r="D377">
+        <v>0.3582360081225389</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B378">
+        <v>0.007987263050870542</v>
+      </c>
+      <c r="C378">
+        <v>0.007791957704632966</v>
+      </c>
+      <c r="D378">
+        <v>0.9842207792444965</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379">
+        <v>0.02834663768266325</v>
+      </c>
+      <c r="C379">
+        <v>0.02829969405094846</v>
+      </c>
+      <c r="D379">
+        <v>0.9433536682663883</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380">
+        <v>0.4325699857613711</v>
+      </c>
+      <c r="C380">
+        <v>0.5645887105745147</v>
+      </c>
+      <c r="D380">
+        <v>0.002841303664114351</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381">
+        <v>0.01468572985321027</v>
+      </c>
+      <c r="C381">
+        <v>0.01520743491494446</v>
+      </c>
+      <c r="D381">
+        <v>0.9701068352318453</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382">
+        <v>0.0123655050678797</v>
+      </c>
+      <c r="C382">
+        <v>0.6303338115151935</v>
+      </c>
+      <c r="D382">
+        <v>0.3573006834169267</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383">
+        <v>0.3158932715601881</v>
+      </c>
+      <c r="C383">
+        <v>0.00479459295222476</v>
+      </c>
+      <c r="D383">
+        <v>0.6793121354875871</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384">
+        <v>0.335084804273942</v>
+      </c>
+      <c r="C384">
+        <v>0.01252408339106064</v>
+      </c>
+      <c r="D384">
+        <v>0.6523911123349974</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385">
+        <v>0.01392693491363563</v>
+      </c>
+      <c r="C385">
+        <v>0.06588317922162669</v>
+      </c>
+      <c r="D385">
+        <v>0.9201898858647377</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386">
+        <v>0.02863856809214647</v>
+      </c>
+      <c r="C386">
+        <v>0.02886345437232661</v>
+      </c>
+      <c r="D386">
+        <v>0.9424979775355269</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387">
+        <v>0.017676257472583</v>
+      </c>
+      <c r="C387">
+        <v>0.0177414571021291</v>
+      </c>
+      <c r="D387">
+        <v>0.9645822854252879</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B388">
+        <v>0.5694379609606667</v>
+      </c>
+      <c r="C388">
+        <v>0.4214378419553312</v>
+      </c>
+      <c r="D388">
+        <v>0.009124197084002066</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389">
+        <v>0.1349144673349042</v>
+      </c>
+      <c r="C389">
+        <v>0.06142415553065873</v>
+      </c>
+      <c r="D389">
+        <v>0.8036613771344371</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B390">
+        <v>0.5414380819853293</v>
+      </c>
+      <c r="C390">
+        <v>0.4566268234928996</v>
+      </c>
+      <c r="D390">
+        <v>0.001935094521771141</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B391">
+        <v>0.524182688065142</v>
+      </c>
+      <c r="C391">
+        <v>0.002951291774727765</v>
+      </c>
+      <c r="D391">
+        <v>0.4728660201601304</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B392">
+        <v>0.04897736420329745</v>
+      </c>
+      <c r="C392">
+        <v>0.9039129218233094</v>
+      </c>
+      <c r="D392">
+        <v>0.04710971397339305</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393">
+        <v>0.8107266749809512</v>
+      </c>
+      <c r="C393">
+        <v>0.1814452114329307</v>
+      </c>
+      <c r="D393">
+        <v>0.007828113586118042</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394">
+        <v>0.2258809370198491</v>
+      </c>
+      <c r="C394">
+        <v>0.03024349646067741</v>
+      </c>
+      <c r="D394">
+        <v>0.7438755665194734</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395">
+        <v>0.008639890525146278</v>
+      </c>
+      <c r="C395">
+        <v>0.008953557739916221</v>
+      </c>
+      <c r="D395">
+        <v>0.9824065517349375</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396">
+        <v>0.2193540544398152</v>
+      </c>
+      <c r="C396">
+        <v>0.3192592634038003</v>
+      </c>
+      <c r="D396">
+        <v>0.4613866821563846</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397">
+        <v>0.6453819210918268</v>
+      </c>
+      <c r="C397">
+        <v>0.1158820246456708</v>
+      </c>
+      <c r="D397">
+        <v>0.2387360542625024</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398">
+        <v>0.9676218808943274</v>
+      </c>
+      <c r="C398">
+        <v>0.002755663567067686</v>
+      </c>
+      <c r="D398">
+        <v>0.02962245553860498</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B399">
+        <v>0.3153244330325241</v>
+      </c>
+      <c r="C399">
+        <v>0.1006072720877895</v>
+      </c>
+      <c r="D399">
+        <v>0.5840682948796865</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400">
+        <v>0.4373342180583725</v>
+      </c>
+      <c r="C400">
+        <v>0.0126758484363177</v>
+      </c>
+      <c r="D400">
+        <v>0.5499899335053098</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B401">
+        <v>0.01960271983734504</v>
+      </c>
+      <c r="C401">
+        <v>0.1239992248327013</v>
+      </c>
+      <c r="D401">
+        <v>0.8563980553299537</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B402">
+        <v>0.001830483063561195</v>
+      </c>
+      <c r="C402">
+        <v>0.9965799280163625</v>
+      </c>
+      <c r="D402">
+        <v>0.00158958892007617</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B403">
+        <v>0.02010217735777185</v>
+      </c>
+      <c r="C403">
+        <v>0.01774129000384125</v>
+      </c>
+      <c r="D403">
+        <v>0.962156532638387</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B404">
+        <v>0.7649619221257266</v>
+      </c>
+      <c r="C404">
+        <v>0.00805447265675936</v>
+      </c>
+      <c r="D404">
+        <v>0.226983605217514</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B405">
+        <v>0.01853566338620692</v>
+      </c>
+      <c r="C405">
+        <v>0.01733271821828724</v>
+      </c>
+      <c r="D405">
+        <v>0.9641316183955058</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B406">
+        <v>0.2592553772243185</v>
+      </c>
+      <c r="C406">
+        <v>0.3384995025131997</v>
+      </c>
+      <c r="D406">
+        <v>0.4022451202624818</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B407">
+        <v>0.8660116723120013</v>
+      </c>
+      <c r="C407">
+        <v>0.08523297071820243</v>
+      </c>
+      <c r="D407">
+        <v>0.04875535696979635</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B408">
+        <v>0.9728959274378349</v>
+      </c>
+      <c r="C408">
+        <v>0.01360340936772836</v>
+      </c>
+      <c r="D408">
+        <v>0.01350066319443662</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B409">
+        <v>0.01361809102139741</v>
+      </c>
+      <c r="C409">
+        <v>0.5483344805146807</v>
+      </c>
+      <c r="D409">
+        <v>0.438047428463922</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B410">
+        <v>0.01811683835672842</v>
+      </c>
+      <c r="C410">
+        <v>0.01787245801438263</v>
+      </c>
+      <c r="D410">
+        <v>0.9640107036288889</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B411">
+        <v>0.05919426485378494</v>
+      </c>
+      <c r="C411">
+        <v>0.003403758693737385</v>
+      </c>
+      <c r="D411">
+        <v>0.9374019764524777</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B412">
+        <v>0.7546055556876805</v>
+      </c>
+      <c r="C412">
+        <v>0.002595722857080463</v>
+      </c>
+      <c r="D412">
+        <v>0.242798721455239</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B413">
+        <v>0.9721053124296694</v>
+      </c>
+      <c r="C413">
+        <v>0.01644989620483388</v>
+      </c>
+      <c r="D413">
+        <v>0.01144479136549685</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414">
+        <v>0.7224862537881187</v>
+      </c>
+      <c r="C414">
+        <v>0.1743875849299423</v>
+      </c>
+      <c r="D414">
+        <v>0.1031261612819391</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B415">
+        <v>0.5640563542573026</v>
+      </c>
+      <c r="C415">
+        <v>0.4232554619581087</v>
+      </c>
+      <c r="D415">
+        <v>0.01268818378458872</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416">
+        <v>0.3116416925829593</v>
+      </c>
+      <c r="C416">
+        <v>0.03355445040511697</v>
+      </c>
+      <c r="D416">
+        <v>0.6548038570119238</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B417">
+        <v>0.3428921919635005</v>
+      </c>
+      <c r="C417">
+        <v>0.6537486287631968</v>
+      </c>
+      <c r="D417">
+        <v>0.003359179273302576</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B418">
+        <v>0.08608280166791488</v>
+      </c>
+      <c r="C418">
+        <v>0.03722211972186136</v>
+      </c>
+      <c r="D418">
+        <v>0.8766950786102238</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B419">
+        <v>0.02456867408361362</v>
+      </c>
+      <c r="C419">
+        <v>0.02725580129852759</v>
+      </c>
+      <c r="D419">
+        <v>0.9481755246178588</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B420">
+        <v>0.0125548578328239</v>
+      </c>
+      <c r="C420">
+        <v>0.8987295941289669</v>
+      </c>
+      <c r="D420">
+        <v>0.08871554803820922</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B421">
+        <v>0.009292692779963479</v>
+      </c>
+      <c r="C421">
+        <v>0.808244885132394</v>
+      </c>
+      <c r="D421">
+        <v>0.1824624220876425</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B422">
+        <v>0.01894971974230707</v>
+      </c>
+      <c r="C422">
+        <v>0.1432310572723625</v>
+      </c>
+      <c r="D422">
+        <v>0.8378192229853305</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423">
+        <v>0.3506138781979742</v>
+      </c>
+      <c r="C423">
+        <v>0.1216400979851675</v>
+      </c>
+      <c r="D423">
+        <v>0.5277460238168584</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424">
+        <v>0.01501510935737704</v>
+      </c>
+      <c r="C424">
+        <v>0.1142837533108582</v>
+      </c>
+      <c r="D424">
+        <v>0.8707011373317647</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B425">
+        <v>0.04831628590156819</v>
+      </c>
+      <c r="C425">
+        <v>0.04836530296107838</v>
+      </c>
+      <c r="D425">
+        <v>0.9033184111373534</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B426">
+        <v>0.0851407790041447</v>
+      </c>
+      <c r="C426">
+        <v>0.005340806529525933</v>
+      </c>
+      <c r="D426">
+        <v>0.9095184144663293</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B427">
+        <v>0.0255466301351659</v>
+      </c>
+      <c r="C427">
+        <v>0.1213751880933717</v>
+      </c>
+      <c r="D427">
+        <v>0.8530781817714624</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B428">
+        <v>0.9909445165553381</v>
+      </c>
+      <c r="C428">
+        <v>0.004263206139633193</v>
+      </c>
+      <c r="D428">
+        <v>0.00479227730502865</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429">
+        <v>0.04716963679457518</v>
+      </c>
+      <c r="C429">
+        <v>0.04053213060889047</v>
+      </c>
+      <c r="D429">
+        <v>0.9122982325965344</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B430">
+        <v>0.4334195372052555</v>
+      </c>
+      <c r="C430">
+        <v>0.4055473753112492</v>
+      </c>
+      <c r="D430">
+        <v>0.1610330874834954</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B431">
+        <v>0.01052509868614426</v>
+      </c>
+      <c r="C431">
+        <v>0.01077601330680039</v>
+      </c>
+      <c r="D431">
+        <v>0.9786988880070554</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B432">
+        <v>0.9152268897560693</v>
+      </c>
+      <c r="C432">
+        <v>0.05927256524418747</v>
+      </c>
+      <c r="D432">
+        <v>0.02550054499974328</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B433">
+        <v>0.06986837592974815</v>
+      </c>
+      <c r="C433">
+        <v>0.5864386357030922</v>
+      </c>
+      <c r="D433">
+        <v>0.3436929883671597</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B434">
+        <v>0.5493107935124182</v>
+      </c>
+      <c r="C434">
+        <v>0.4491069066384862</v>
+      </c>
+      <c r="D434">
+        <v>0.001582299849095732</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B435">
+        <v>0.864417348966325</v>
+      </c>
+      <c r="C435">
+        <v>0.06700384573493132</v>
+      </c>
+      <c r="D435">
+        <v>0.06857880529874352</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B436">
+        <v>0.005014177555898067</v>
+      </c>
+      <c r="C436">
+        <v>0.02296559751236619</v>
+      </c>
+      <c r="D436">
+        <v>0.9720202249317357</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B437">
+        <v>0.9703083649235726</v>
+      </c>
+      <c r="C437">
+        <v>0.01556695122588889</v>
+      </c>
+      <c r="D437">
+        <v>0.01412468385053844</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B438">
+        <v>0.02880831016171308</v>
+      </c>
+      <c r="C438">
+        <v>0.02836483193310256</v>
+      </c>
+      <c r="D438">
+        <v>0.9428268579051844</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B439">
+        <v>0.02540370475069505</v>
+      </c>
+      <c r="C439">
+        <v>0.3814823519950172</v>
+      </c>
+      <c r="D439">
+        <v>0.5931139432542878</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B440">
+        <v>0.8326093464912577</v>
+      </c>
+      <c r="C440">
+        <v>0.08242679505290013</v>
+      </c>
+      <c r="D440">
+        <v>0.08496385845584223</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B441">
+        <v>0.09380937151427558</v>
+      </c>
+      <c r="C441">
+        <v>0.1896690687803727</v>
+      </c>
+      <c r="D441">
+        <v>0.7165215597053518</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B442">
+        <v>0.3025210243341209</v>
+      </c>
+      <c r="C442">
+        <v>0.005362830680395781</v>
+      </c>
+      <c r="D442">
+        <v>0.6921161449854834</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B443">
+        <v>0.1553002472365075</v>
+      </c>
+      <c r="C443">
+        <v>0.03800354580556666</v>
+      </c>
+      <c r="D443">
+        <v>0.8066962069579259</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444">
+        <v>0.8358552395651154</v>
+      </c>
+      <c r="C444">
+        <v>0.1632124238700665</v>
+      </c>
+      <c r="D444">
+        <v>0.0009323365648181691</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B445">
+        <v>0.02685123921629752</v>
+      </c>
+      <c r="C445">
+        <v>0.3672364534579994</v>
+      </c>
+      <c r="D445">
+        <v>0.605912307325703</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B446">
+        <v>0.093468258776329</v>
+      </c>
+      <c r="C446">
+        <v>0.04948123106860942</v>
+      </c>
+      <c r="D446">
+        <v>0.8570505101550616</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B447">
+        <v>0.9975720934552359</v>
+      </c>
+      <c r="C447">
+        <v>0.001294135267286028</v>
+      </c>
+      <c r="D447">
+        <v>0.001133771277477948</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B448">
+        <v>0.04018999983851942</v>
+      </c>
+      <c r="C448">
+        <v>0.03870674111734932</v>
+      </c>
+      <c r="D448">
+        <v>0.9211032590441312</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449">
+        <v>0.8209164067324476</v>
+      </c>
+      <c r="C449">
+        <v>0.1596918868391582</v>
+      </c>
+      <c r="D449">
+        <v>0.01939170642839413</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450">
+        <v>0.003999724249102205</v>
+      </c>
+      <c r="C450">
+        <v>0.9916061966010885</v>
+      </c>
+      <c r="D450">
+        <v>0.004394079149809453</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451">
+        <v>0.006333710215561406</v>
+      </c>
+      <c r="C451">
+        <v>0.008131154261144909</v>
+      </c>
+      <c r="D451">
+        <v>0.9855351355232936</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452">
+        <v>0.04709777479754027</v>
+      </c>
+      <c r="C452">
+        <v>0.00664372557859277</v>
+      </c>
+      <c r="D452">
+        <v>0.9462584996238669</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453">
+        <v>0.007987547771998662</v>
+      </c>
+      <c r="C453">
+        <v>0.007571768330260311</v>
+      </c>
+      <c r="D453">
+        <v>0.984440683897741</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454">
+        <v>0.01755468800047117</v>
+      </c>
+      <c r="C454">
+        <v>0.2528963493157455</v>
+      </c>
+      <c r="D454">
+        <v>0.7295489626837834</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455">
+        <v>0.01748165065567243</v>
+      </c>
+      <c r="C455">
+        <v>0.9311716826970949</v>
+      </c>
+      <c r="D455">
+        <v>0.05134666664723265</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456">
+        <v>0.3884667330104838</v>
+      </c>
+      <c r="C456">
+        <v>0.4353285724162582</v>
+      </c>
+      <c r="D456">
+        <v>0.1762046945732579</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B457">
+        <v>0.8958259959534217</v>
+      </c>
+      <c r="C457">
+        <v>0.08368076882874292</v>
+      </c>
+      <c r="D457">
+        <v>0.02049323521783523</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458">
+        <v>0.796159612423252</v>
+      </c>
+      <c r="C458">
+        <v>0.1403275093693578</v>
+      </c>
+      <c r="D458">
+        <v>0.06351287820739024</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459">
+        <v>0.6058150070699234</v>
+      </c>
+      <c r="C459">
+        <v>0.207718574387514</v>
+      </c>
+      <c r="D459">
+        <v>0.1864664185425625</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B460">
+        <v>0.4405935229560161</v>
+      </c>
+      <c r="C460">
+        <v>0.3543419641816196</v>
+      </c>
+      <c r="D460">
+        <v>0.2050645128623644</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461">
+        <v>0.8887530205502204</v>
+      </c>
+      <c r="C461">
+        <v>0.1084919977183352</v>
+      </c>
+      <c r="D461">
+        <v>0.002754981731444412</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B462">
+        <v>0.02421291610905965</v>
+      </c>
+      <c r="C462">
+        <v>0.0244038660861727</v>
+      </c>
+      <c r="D462">
+        <v>0.9513832178047676</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B463">
+        <v>0.0246190182038825</v>
+      </c>
+      <c r="C463">
+        <v>0.1113773435324112</v>
+      </c>
+      <c r="D463">
+        <v>0.8640036382637063</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B464">
+        <v>0.02999384006914399</v>
+      </c>
+      <c r="C464">
+        <v>0.02791898817092681</v>
+      </c>
+      <c r="D464">
+        <v>0.9420871717599292</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B465">
+        <v>0.007889615958538836</v>
+      </c>
+      <c r="C465">
+        <v>0.006798437410110336</v>
+      </c>
+      <c r="D465">
+        <v>0.9853119466313509</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B466">
+        <v>0.02472058003352732</v>
+      </c>
+      <c r="C466">
+        <v>0.5089442242823401</v>
+      </c>
+      <c r="D466">
+        <v>0.4663351956841326</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467">
+        <v>0.01650645217344833</v>
+      </c>
+      <c r="C467">
+        <v>0.3469030408753869</v>
+      </c>
+      <c r="D467">
+        <v>0.6365905069511647</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B468">
+        <v>0.724279535871336</v>
+      </c>
+      <c r="C468">
+        <v>0.03997098578467098</v>
+      </c>
+      <c r="D468">
+        <v>0.235749478343993</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B469">
+        <v>0.9972479942283649</v>
+      </c>
+      <c r="C469">
+        <v>0.00149737729085896</v>
+      </c>
+      <c r="D469">
+        <v>0.001254628480776212</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B470">
+        <v>0.500600766480147</v>
+      </c>
+      <c r="C470">
+        <v>0.4760069193042163</v>
+      </c>
+      <c r="D470">
+        <v>0.02339231421563685</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B471">
+        <v>0.06942681903615829</v>
+      </c>
+      <c r="C471">
+        <v>0.07260937357708311</v>
+      </c>
+      <c r="D471">
+        <v>0.8579638073867586</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B472">
+        <v>0.07420763103064677</v>
+      </c>
+      <c r="C472">
+        <v>0.00813735928199171</v>
+      </c>
+      <c r="D472">
+        <v>0.9176550096873615</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B473">
+        <v>0.005588943684508883</v>
+      </c>
+      <c r="C473">
+        <v>0.005366494610029328</v>
+      </c>
+      <c r="D473">
+        <v>0.9890445617054617</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B474">
+        <v>0.03256895409966402</v>
+      </c>
+      <c r="C474">
+        <v>0.02648263911334201</v>
+      </c>
+      <c r="D474">
+        <v>0.940948406786994</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B475">
+        <v>0.01362019021884196</v>
+      </c>
+      <c r="C475">
+        <v>0.01222411103659177</v>
+      </c>
+      <c r="D475">
+        <v>0.9741556987445663</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B476">
+        <v>0.01404285495595889</v>
+      </c>
+      <c r="C476">
+        <v>0.8707951671892968</v>
+      </c>
+      <c r="D476">
+        <v>0.1151619778547443</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B477">
+        <v>0.01495105904779185</v>
+      </c>
+      <c r="C477">
+        <v>0.01473093882465744</v>
+      </c>
+      <c r="D477">
+        <v>0.9703180021275507</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B478">
+        <v>0.01080507269509128</v>
+      </c>
+      <c r="C478">
+        <v>0.0101812062941616</v>
+      </c>
+      <c r="D478">
+        <v>0.9790137210107472</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B479">
+        <v>0.5065798109564505</v>
+      </c>
+      <c r="C479">
+        <v>0.003989828200551258</v>
+      </c>
+      <c r="D479">
+        <v>0.4894303608429982</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B480">
+        <v>0.8988231191043082</v>
+      </c>
+      <c r="C480">
+        <v>0.04928985868418675</v>
+      </c>
+      <c r="D480">
+        <v>0.05188702221150495</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B481">
+        <v>0.009629700678925745</v>
+      </c>
+      <c r="C481">
+        <v>0.451288367063585</v>
+      </c>
+      <c r="D481">
+        <v>0.5390819322574892</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B482">
+        <v>0.03246759938757654</v>
+      </c>
+      <c r="C482">
+        <v>0.03458370841754275</v>
+      </c>
+      <c r="D482">
+        <v>0.9329486921948806</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B483">
+        <v>0.02403672453490931</v>
+      </c>
+      <c r="C483">
+        <v>0.5875366131270674</v>
+      </c>
+      <c r="D483">
+        <v>0.3884266623380231</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B484">
+        <v>0.1974404844356998</v>
+      </c>
+      <c r="C484">
+        <v>0.01225867369511538</v>
+      </c>
+      <c r="D484">
+        <v>0.7903008418691848</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B485">
+        <v>0.4546609917542325</v>
+      </c>
+      <c r="C485">
+        <v>0.01982562605942939</v>
+      </c>
+      <c r="D485">
+        <v>0.525513382186338</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B486">
+        <v>0.7195244678932086</v>
+      </c>
+      <c r="C486">
+        <v>0.01449846732490215</v>
+      </c>
+      <c r="D486">
+        <v>0.2659770647818893</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B487">
+        <v>0.992898956597451</v>
+      </c>
+      <c r="C487">
+        <v>0.003413492031551376</v>
+      </c>
+      <c r="D487">
+        <v>0.003687551370997731</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B488">
+        <v>0.005522972300074896</v>
+      </c>
+      <c r="C488">
+        <v>0.005498214449574515</v>
+      </c>
+      <c r="D488">
+        <v>0.9889788132503506</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B489">
+        <v>0.006172989979801174</v>
+      </c>
+      <c r="C489">
+        <v>0.01708236380062366</v>
+      </c>
+      <c r="D489">
+        <v>0.9767446462195751</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B490">
+        <v>0.119611775003606</v>
+      </c>
+      <c r="C490">
+        <v>0.02546033432517106</v>
+      </c>
+      <c r="D490">
+        <v>0.8549278906712229</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B491">
+        <v>0.02163331778782348</v>
+      </c>
+      <c r="C491">
+        <v>0.1236475684345186</v>
+      </c>
+      <c r="D491">
+        <v>0.8547191137776579</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B492">
+        <v>0.004961838832118101</v>
+      </c>
+      <c r="C492">
+        <v>0.003913525181023864</v>
+      </c>
+      <c r="D492">
+        <v>0.991124635986858</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B493">
+        <v>0.4903639169217514</v>
+      </c>
+      <c r="C493">
+        <v>0.4892396919770544</v>
+      </c>
+      <c r="D493">
+        <v>0.02039639110119438</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B494">
+        <v>0.3571714841697579</v>
+      </c>
+      <c r="C494">
+        <v>0.004661281750718491</v>
+      </c>
+      <c r="D494">
+        <v>0.6381672340795236</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B495">
+        <v>0.6642163125951885</v>
+      </c>
+      <c r="C495">
+        <v>0.331621031754597</v>
+      </c>
+      <c r="D495">
+        <v>0.004162655650214412</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B496">
+        <v>0.01172144420446783</v>
+      </c>
+      <c r="C496">
+        <v>0.2960607956760052</v>
+      </c>
+      <c r="D496">
+        <v>0.692217760119527</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B497">
+        <v>0.5629409263952158</v>
+      </c>
+      <c r="C497">
+        <v>0.4356049652066076</v>
+      </c>
+      <c r="D497">
+        <v>0.00145410839817662</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B498">
+        <v>0.959973856420308</v>
+      </c>
+      <c r="C498">
+        <v>0.01900867941228292</v>
+      </c>
+      <c r="D498">
+        <v>0.02101746416740913</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B499">
+        <v>0.02622438174722436</v>
+      </c>
+      <c r="C499">
+        <v>0.02695469757136991</v>
+      </c>
+      <c r="D499">
+        <v>0.9468209206814058</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B500">
+        <v>0.0308706749066805</v>
+      </c>
+      <c r="C500">
+        <v>0.03058719089455946</v>
+      </c>
+      <c r="D500">
+        <v>0.9385421341987601</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B501">
+        <v>0.02151447403371402</v>
+      </c>
+      <c r="C501">
+        <v>0.02018048883167139</v>
+      </c>
+      <c r="D501">
+        <v>0.9583050371346145</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B502">
+        <v>0.01443395841169158</v>
+      </c>
+      <c r="C502">
+        <v>0.8941085087728662</v>
+      </c>
+      <c r="D502">
+        <v>0.09145753281544217</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B503">
+        <v>0.01030369784013702</v>
+      </c>
+      <c r="C503">
+        <v>0.01021623899340861</v>
+      </c>
+      <c r="D503">
+        <v>0.9794800631664544</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B504">
+        <v>0.8409193211948123</v>
+      </c>
+      <c r="C504">
+        <v>0.02207598169198622</v>
+      </c>
+      <c r="D504">
+        <v>0.1370046971132016</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B505">
+        <v>0.3065582892236838</v>
+      </c>
+      <c r="C505">
+        <v>0.01758646762564116</v>
+      </c>
+      <c r="D505">
+        <v>0.6758552431506751</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B506">
+        <v>0.1857194768794669</v>
+      </c>
+      <c r="C506">
+        <v>0.72772162472408</v>
+      </c>
+      <c r="D506">
+        <v>0.08655889839645309</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B507">
+        <v>0.007453926955340773</v>
+      </c>
+      <c r="C507">
+        <v>0.2286792165378159</v>
+      </c>
+      <c r="D507">
+        <v>0.7638668565068433</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B508">
+        <v>0.4286339331515003</v>
+      </c>
+      <c r="C508">
+        <v>0.05090448736924534</v>
+      </c>
+      <c r="D508">
+        <v>0.5204615794792543</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B509">
+        <v>0.8143199693485809</v>
+      </c>
+      <c r="C509">
+        <v>0.09225913399512806</v>
+      </c>
+      <c r="D509">
+        <v>0.09342089665629109</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B510">
+        <v>0.7318403686672073</v>
+      </c>
+      <c r="C510">
+        <v>0.2131586714278001</v>
+      </c>
+      <c r="D510">
+        <v>0.05500095990499271</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B511">
+        <v>0.1751688603526521</v>
+      </c>
+      <c r="C511">
+        <v>0.8222489898001084</v>
+      </c>
+      <c r="D511">
+        <v>0.002582149847239373</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B512">
+        <v>0.02518892429554703</v>
+      </c>
+      <c r="C512">
+        <v>0.5055392765091831</v>
+      </c>
+      <c r="D512">
+        <v>0.4692717991952699</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B513">
+        <v>0.02117756888929916</v>
+      </c>
+      <c r="C513">
+        <v>0.01978232616364528</v>
+      </c>
+      <c r="D513">
+        <v>0.9590401049470555</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B514">
+        <v>0.02204316397851313</v>
+      </c>
+      <c r="C514">
+        <v>0.02023307444643296</v>
+      </c>
+      <c r="D514">
+        <v>0.9577237615750539</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B515">
+        <v>0.4402514833293563</v>
+      </c>
+      <c r="C515">
+        <v>0.5538619916415072</v>
+      </c>
+      <c r="D515">
+        <v>0.005886525029136472</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B516">
+        <v>0.989620197892501</v>
+      </c>
+      <c r="C516">
+        <v>0.006153005557671681</v>
+      </c>
+      <c r="D516">
+        <v>0.00422679654982725</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B517">
+        <v>0.01900959444675312</v>
+      </c>
+      <c r="C517">
+        <v>0.01900298014516033</v>
+      </c>
+      <c r="D517">
+        <v>0.9619874254080867</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B518">
+        <v>0.006223966173727538</v>
+      </c>
+      <c r="C518">
+        <v>0.02881214417799574</v>
+      </c>
+      <c r="D518">
+        <v>0.9649638896482767</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B519">
+        <v>0.2584694808930412</v>
+      </c>
+      <c r="C519">
+        <v>0.01063468677049144</v>
+      </c>
+      <c r="D519">
+        <v>0.7308958323364675</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B520">
+        <v>0.01315892753971731</v>
+      </c>
+      <c r="C520">
+        <v>0.1509623938908355</v>
+      </c>
+      <c r="D520">
+        <v>0.8358786785694471</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B521">
+        <v>0.02102566151944824</v>
+      </c>
+      <c r="C521">
+        <v>0.02002422266908929</v>
+      </c>
+      <c r="D521">
+        <v>0.9589501158114625</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B522">
+        <v>0.1892530916757529</v>
+      </c>
+      <c r="C522">
+        <v>0.007422211758345232</v>
+      </c>
+      <c r="D522">
+        <v>0.803324696565902</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B523">
+        <v>0.8994448321062526</v>
+      </c>
+      <c r="C523">
+        <v>0.08060365157256853</v>
+      </c>
+      <c r="D523">
+        <v>0.01995151632117884</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B524">
+        <v>0.08046939484030971</v>
+      </c>
+      <c r="C524">
+        <v>0.391100302328922</v>
+      </c>
+      <c r="D524">
+        <v>0.5284303028307683</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B525">
+        <v>0.009675230909637296</v>
+      </c>
+      <c r="C525">
+        <v>0.009661151041811471</v>
+      </c>
+      <c r="D525">
+        <v>0.9806636180485513</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B526">
+        <v>0.4787190064599474</v>
+      </c>
+      <c r="C526">
+        <v>0.04917878088191677</v>
+      </c>
+      <c r="D526">
+        <v>0.4721022126581359</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B527">
+        <v>0.006336999864214599</v>
+      </c>
+      <c r="C527">
+        <v>0.006209489056781243</v>
+      </c>
+      <c r="D527">
+        <v>0.9874535110790041</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B528">
+        <v>0.6411469828798545</v>
+      </c>
+      <c r="C528">
+        <v>0.09769300727560955</v>
+      </c>
+      <c r="D528">
+        <v>0.261160009844536</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B529">
+        <v>0.603538617493229</v>
+      </c>
+      <c r="C529">
+        <v>0.3858219462370204</v>
+      </c>
+      <c r="D529">
+        <v>0.01063943626975056</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B530">
+        <v>0.8498096800275305</v>
+      </c>
+      <c r="C530">
+        <v>0.01177467536931828</v>
+      </c>
+      <c r="D530">
+        <v>0.1384156446031511</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B531">
+        <v>0.6322846738756824</v>
+      </c>
+      <c r="C531">
+        <v>0.006803974276124149</v>
+      </c>
+      <c r="D531">
+        <v>0.3609113518481935</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B532">
+        <v>0.01263372088760044</v>
+      </c>
+      <c r="C532">
+        <v>0.01361595190644047</v>
+      </c>
+      <c r="D532">
+        <v>0.9737503272059591</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B533">
+        <v>0.02509034032990272</v>
+      </c>
+      <c r="C533">
+        <v>0.02326240935318917</v>
+      </c>
+      <c r="D533">
+        <v>0.9516472503169081</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B534">
+        <v>0.8534290330065541</v>
+      </c>
+      <c r="C534">
+        <v>0.05102755238192628</v>
+      </c>
+      <c r="D534">
+        <v>0.09554341461151968</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B535">
+        <v>0.007616308802423893</v>
+      </c>
+      <c r="C535">
+        <v>0.00663031654367831</v>
+      </c>
+      <c r="D535">
+        <v>0.9857533746538978</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B536">
+        <v>0.01159607858701068</v>
+      </c>
+      <c r="C536">
+        <v>0.01084107961357707</v>
+      </c>
+      <c r="D536">
+        <v>0.9775628417994122</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B537">
+        <v>0.7518543120204572</v>
+      </c>
+      <c r="C537">
+        <v>0.01540317903176608</v>
+      </c>
+      <c r="D537">
+        <v>0.2327425089477767</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B538">
+        <v>0.2172335819124587</v>
+      </c>
+      <c r="C538">
+        <v>0.01769269812938977</v>
+      </c>
+      <c r="D538">
+        <v>0.7650737199581514</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B539">
+        <v>0.01001055853745276</v>
+      </c>
+      <c r="C539">
+        <v>0.1547243481680526</v>
+      </c>
+      <c r="D539">
+        <v>0.8352650932944946</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B540">
+        <v>0.03366051995806392</v>
+      </c>
+      <c r="C540">
+        <v>0.03291900555862244</v>
+      </c>
+      <c r="D540">
+        <v>0.9334204744833137</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B541">
+        <v>0.0585787383408612</v>
+      </c>
+      <c r="C541">
+        <v>0.124119152408273</v>
+      </c>
+      <c r="D541">
+        <v>0.8173021092508659</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B542">
+        <v>0.005335315050716787</v>
+      </c>
+      <c r="C542">
+        <v>0.3093708964256042</v>
+      </c>
+      <c r="D542">
+        <v>0.6852937885236789</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B543">
+        <v>0.3060778646550662</v>
+      </c>
+      <c r="C543">
+        <v>0.008642401471070369</v>
+      </c>
+      <c r="D543">
+        <v>0.6852797338738634</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B544">
+        <v>0.01258970667755925</v>
+      </c>
+      <c r="C544">
+        <v>0.01272500159222837</v>
+      </c>
+      <c r="D544">
+        <v>0.9746852917302123</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B545">
+        <v>0.02674495183986722</v>
+      </c>
+      <c r="C545">
+        <v>0.3917037930193291</v>
+      </c>
+      <c r="D545">
+        <v>0.5815512551408037</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B546">
+        <v>0.3287296880361589</v>
+      </c>
+      <c r="C546">
+        <v>0.07986249485869182</v>
+      </c>
+      <c r="D546">
+        <v>0.5914078171051493</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B547">
+        <v>0.0393112776976119</v>
+      </c>
+      <c r="C547">
+        <v>0.03798147492835044</v>
+      </c>
+      <c r="D547">
+        <v>0.9227072473740376</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B548">
+        <v>0.5180017452518165</v>
+      </c>
+      <c r="C548">
+        <v>0.4330549959344719</v>
+      </c>
+      <c r="D548">
+        <v>0.04894325881371148</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B549">
+        <v>0.016752927487901</v>
+      </c>
+      <c r="C549">
+        <v>0.01674622430582698</v>
+      </c>
+      <c r="D549">
+        <v>0.966500848206272</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B550">
+        <v>0.5079869178267891</v>
+      </c>
+      <c r="C550">
+        <v>0.327468773955758</v>
+      </c>
+      <c r="D550">
+        <v>0.164544308217453</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B551">
+        <v>0.4386401938407053</v>
+      </c>
+      <c r="C551">
+        <v>0.1551821521901865</v>
+      </c>
+      <c r="D551">
+        <v>0.4061776539691083</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B552">
+        <v>0.4342675315040547</v>
+      </c>
+      <c r="C552">
+        <v>0.4213210076836303</v>
+      </c>
+      <c r="D552">
+        <v>0.1444114608123149</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B553">
+        <v>0.006536741664102543</v>
+      </c>
+      <c r="C553">
+        <v>0.00596166894674344</v>
+      </c>
+      <c r="D553">
+        <v>0.987501589389154</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B554">
+        <v>0.4633606846260625</v>
+      </c>
+      <c r="C554">
+        <v>0.5327530847044097</v>
+      </c>
+      <c r="D554">
+        <v>0.003886230669527689</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B555">
+        <v>0.7909227453447419</v>
+      </c>
+      <c r="C555">
+        <v>0.2063380894785338</v>
+      </c>
+      <c r="D555">
+        <v>0.002739165176724286</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B556">
+        <v>0.5867571388134349</v>
+      </c>
+      <c r="C556">
+        <v>0.4114666090332921</v>
+      </c>
+      <c r="D556">
+        <v>0.001776252153272959</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B557">
+        <v>0.6944247473891959</v>
+      </c>
+      <c r="C557">
+        <v>0.2980941631836136</v>
+      </c>
+      <c r="D557">
+        <v>0.007481089427190567</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B558">
+        <v>0.6086350537236048</v>
+      </c>
+      <c r="C558">
+        <v>0.1516246237221657</v>
+      </c>
+      <c r="D558">
+        <v>0.2397403225542294</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B559">
+        <v>0.05922335208237126</v>
+      </c>
+      <c r="C559">
+        <v>0.07601757101516973</v>
+      </c>
+      <c r="D559">
+        <v>0.864759076902459</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B560">
+        <v>0.8993832556841708</v>
+      </c>
+      <c r="C560">
+        <v>0.0973454500869354</v>
+      </c>
+      <c r="D560">
+        <v>0.003271294228893723</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B561">
+        <v>0.02125839569522244</v>
+      </c>
+      <c r="C561">
+        <v>0.1470640040399692</v>
+      </c>
+      <c r="D561">
+        <v>0.8316776002648085</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B562">
+        <v>0.8426890883320497</v>
+      </c>
+      <c r="C562">
+        <v>0.1494494754044717</v>
+      </c>
+      <c r="D562">
+        <v>0.007861436263478615</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B563">
+        <v>0.1639360681479135</v>
+      </c>
+      <c r="C563">
+        <v>0.02037503525216519</v>
+      </c>
+      <c r="D563">
+        <v>0.8156888965999213</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B564">
+        <v>0.009461782958548551</v>
+      </c>
+      <c r="C564">
+        <v>0.04362614212618374</v>
+      </c>
+      <c r="D564">
+        <v>0.9469120749152676</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B565">
+        <v>0.869873159706962</v>
+      </c>
+      <c r="C565">
+        <v>0.129103636408682</v>
+      </c>
+      <c r="D565">
+        <v>0.001023203884355988</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B566">
+        <v>0.456356605371082</v>
+      </c>
+      <c r="C566">
+        <v>0.3510068545041534</v>
+      </c>
+      <c r="D566">
+        <v>0.1926365401247646</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B567">
+        <v>0.005602211681199931</v>
+      </c>
+      <c r="C567">
+        <v>0.9874827757538338</v>
+      </c>
+      <c r="D567">
+        <v>0.006915012564966298</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B568">
+        <v>0.004750265890886554</v>
+      </c>
+      <c r="C568">
+        <v>0.05630004725945845</v>
+      </c>
+      <c r="D568">
+        <v>0.9389496868496551</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B569">
+        <v>0.02526683476135223</v>
+      </c>
+      <c r="C569">
+        <v>0.6563433532592221</v>
+      </c>
+      <c r="D569">
+        <v>0.3183898119794257</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B570">
+        <v>0.01969639137124257</v>
+      </c>
+      <c r="C570">
+        <v>0.01968332609236476</v>
+      </c>
+      <c r="D570">
+        <v>0.9606202825363928</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B571">
+        <v>0.01800773560714196</v>
+      </c>
+      <c r="C571">
+        <v>0.01739486763708951</v>
+      </c>
+      <c r="D571">
+        <v>0.9645973967557685</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B572">
+        <v>0.0871396174640192</v>
+      </c>
+      <c r="C572">
+        <v>0.5011515550640603</v>
+      </c>
+      <c r="D572">
+        <v>0.4117088274719206</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B573">
+        <v>0.4335147426791549</v>
+      </c>
+      <c r="C573">
+        <v>0.5641403855799781</v>
+      </c>
+      <c r="D573">
+        <v>0.002344871740866886</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B574">
+        <v>0.4562606454386237</v>
+      </c>
+      <c r="C574">
+        <v>0.02849983948380835</v>
+      </c>
+      <c r="D574">
+        <v>0.5152395150775679</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B575">
+        <v>0.06326399172867521</v>
+      </c>
+      <c r="C575">
+        <v>0.04812770925999351</v>
+      </c>
+      <c r="D575">
+        <v>0.8886082990113312</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B576">
+        <v>0.02463326261674837</v>
+      </c>
+      <c r="C576">
+        <v>0.3708108767224459</v>
+      </c>
+      <c r="D576">
+        <v>0.6045558606608058</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B577">
+        <v>0.0179547136723135</v>
+      </c>
+      <c r="C577">
+        <v>0.1695905346583569</v>
+      </c>
+      <c r="D577">
+        <v>0.8124547516693296</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B578">
+        <v>0.01225148207364876</v>
+      </c>
+      <c r="C578">
+        <v>0.1760438063989453</v>
+      </c>
+      <c r="D578">
+        <v>0.8117047115274059</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B579">
+        <v>0.03477324770898953</v>
+      </c>
+      <c r="C579">
+        <v>0.03515776019490589</v>
+      </c>
+      <c r="D579">
+        <v>0.9300689920961046</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B580">
+        <v>0.01881380127393571</v>
+      </c>
+      <c r="C580">
+        <v>0.01815765257628315</v>
+      </c>
+      <c r="D580">
+        <v>0.9630285461497812</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B581">
+        <v>0.100639742293342</v>
+      </c>
+      <c r="C581">
+        <v>0.01216644820334236</v>
+      </c>
+      <c r="D581">
+        <v>0.8871938095033157</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B582">
+        <v>0.04574721710717575</v>
+      </c>
+      <c r="C582">
+        <v>0.2114778036039366</v>
+      </c>
+      <c r="D582">
+        <v>0.7427749792888876</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B583">
+        <v>0.2758938994840536</v>
+      </c>
+      <c r="C583">
+        <v>0.084853632795079</v>
+      </c>
+      <c r="D583">
+        <v>0.6392524677208674</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B584">
+        <v>0.8986197211334838</v>
+      </c>
+      <c r="C584">
+        <v>0.01161233924792386</v>
+      </c>
+      <c r="D584">
+        <v>0.08976793961859234</v>
       </c>
     </row>
   </sheetData>
